--- a/Data-analysis/Spinning.xlsx
+++ b/Data-analysis/Spinning.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8441C-74FE-46FC-96FF-A3F989A3C9E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_page_wide" sheetId="1" r:id="rId1"/>
     <sheet name="Hematocrit" sheetId="3" r:id="rId2"/>
     <sheet name="Bad data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N93" authorId="0" shapeId="0">
+    <comment ref="O93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -62,14 +71,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The raw weights are written in my lab book for this day. This value is "g Disk" - 62.9855g</t>
         </r>
       </text>
     </comment>
-    <comment ref="O93" authorId="0" shapeId="0">
+    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -86,14 +95,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is the difference between g_disk and g_wiped in my lab book</t>
         </r>
       </text>
     </comment>
-    <comment ref="P93" authorId="0" shapeId="0">
+    <comment ref="Q93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -110,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is g_disk minus g_wiped</t>
@@ -122,12 +131,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="69">
   <si>
     <t>Disk</t>
   </si>
@@ -343,16 +352,37 @@
   <si>
     <t>HCT_disk</t>
   </si>
+  <si>
+    <t>20.05_8x3_glossy_4mL</t>
+  </si>
+  <si>
+    <t>20.05_8x3long_glossy_4mL</t>
+  </si>
+  <si>
+    <t>Moat</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>20.05_8x3long_0.75x9mm_glossy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,19 +403,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -401,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -409,11 +426,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -427,6 +453,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +472,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -619,15 +646,12 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7BE-4BB3-83A6-8706B9602D6E}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -643,6 +667,9 @@
                   </c:strRef>
                 </c15:tx>
               </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7BE-4BB3-83A6-8706B9602D6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -901,14 +928,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1519,7 +1546,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFBBC99-885F-4EF6-B984-4882307E780A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFBBC99-885F-4EF6-B984-4882307E780A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1590,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4346EC53-EF7D-4616-BDFA-5D8CA0D5F4BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4346EC53-EF7D-4616-BDFA-5D8CA0D5F4BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1634,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A121844-DCEF-493C-B950-93833269643C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A121844-DCEF-493C-B950-93833269643C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1678,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3493C57-AF06-4E58-AE0A-802C6FD0D299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3493C57-AF06-4E58-AE0A-802C6FD0D299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1728,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F423840-B72F-4217-9ED7-6AC9B7BDACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F423840-B72F-4217-9ED7-6AC9B7BDACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1778,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7C2062-9BD2-442C-85A1-AC7A4EB0E37A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7C2062-9BD2-442C-85A1-AC7A4EB0E37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,6 +1875,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1883,6 +1927,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2058,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
@@ -2066,20 +2127,20 @@
       <selection activeCell="I8" sqref="I8:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2129,7 +2190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43242</v>
       </c>
@@ -2149,7 +2210,7 @@
         <v>4.0156999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43242</v>
       </c>
@@ -2169,7 +2230,7 @@
         <v>3.9187999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43242</v>
       </c>
@@ -2192,7 +2253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43242</v>
       </c>
@@ -2212,7 +2273,7 @@
         <v>4.8489000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43242</v>
       </c>
@@ -2232,7 +2293,7 @@
         <v>3.5714999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43242</v>
       </c>
@@ -2252,7 +2313,7 @@
         <v>4.0186999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43258</v>
       </c>
@@ -2301,7 +2362,7 @@
         <v>6.7259070000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43258</v>
       </c>
@@ -2349,7 +2410,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43258</v>
       </c>
@@ -2397,7 +2458,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43258</v>
       </c>
@@ -2445,7 +2506,7 @@
         <v>0.98429999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43258</v>
       </c>
@@ -2481,7 +2542,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43258</v>
       </c>
@@ -2517,7 +2578,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43258</v>
       </c>
@@ -2560,7 +2621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43258</v>
       </c>
@@ -2597,7 +2658,7 @@
         <v>4.4399999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43264</v>
       </c>
@@ -2624,7 +2685,7 @@
         <v>3.1424000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43264</v>
       </c>
@@ -2651,7 +2712,7 @@
         <v>3.8690000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43264</v>
       </c>
@@ -2687,7 +2748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43264</v>
       </c>
@@ -2730,7 +2791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43264</v>
       </c>
@@ -2774,7 +2835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43264</v>
       </c>
@@ -2817,7 +2878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="P22" s="2">
@@ -2830,7 +2891,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="P23" s="2">
@@ -2843,7 +2904,7 @@
         <v>49.23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="P24" s="2">
@@ -2856,7 +2917,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="P25" s="2">
@@ -2869,7 +2930,7 @@
         <v>48.43</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="P26" s="2">
@@ -2882,7 +2943,7 @@
         <v>49.62</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="H27" s="4"/>
@@ -2896,7 +2957,7 @@
         <v>50.77</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="P28" s="2">
@@ -2909,7 +2970,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="P29" s="2">
@@ -2922,7 +2983,7 @@
         <v>46.04</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="P30" s="2">
@@ -2935,7 +2996,7 @@
         <v>49.23</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="P31" s="2">
@@ -2955,7 +3016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="P32" s="2">
@@ -2975,7 +3036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="P33" s="2">
@@ -2995,7 +3056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="P34" s="2">
@@ -3008,7 +3069,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="P35" s="2">
@@ -3021,7 +3082,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="P36" s="2">
@@ -3034,7 +3095,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="P37" s="2">
@@ -3047,7 +3108,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="P38" s="2">
@@ -3060,7 +3121,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="P39" s="2">
@@ -3073,7 +3134,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="P40" s="2">
@@ -3086,7 +3147,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="P41" s="2">
@@ -3099,7 +3160,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P42" s="2">
         <v>6</v>
       </c>
@@ -3117,31 +3178,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R114"/>
+  <dimension ref="A1:S137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" style="6"/>
-    <col min="10" max="10" width="8.85546875" style="10"/>
-    <col min="11" max="11" width="8.85546875" style="9"/>
-    <col min="12" max="13" width="9.140625" style="9"/>
-    <col min="14" max="15" width="8.85546875" style="10"/>
-    <col min="17" max="17" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="10" width="8.88671875" style="6"/>
+    <col min="11" max="11" width="8.88671875" style="10"/>
+    <col min="12" max="12" width="8.88671875" style="9"/>
+    <col min="13" max="14" width="9.109375" style="9"/>
+    <col min="15" max="16" width="8.88671875" style="10"/>
+    <col min="18" max="18" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3149,69 +3211,70 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43242</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6">
         <v>0.48</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -3219,11 +3282,11 @@
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
         <v>4.0156999999999998</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
@@ -3240,3626 +3303,4420 @@
       <c r="P2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43242</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
         <v>0.48</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>3.9187999999999992</v>
       </c>
-      <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43242</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6">
         <v>0.48</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <v>4.4285000000000005</v>
       </c>
-      <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43242</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
         <v>0.48</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <v>4.8489000000000004</v>
       </c>
-      <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43242</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.48</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>3.5714999999999995</v>
       </c>
-      <c r="N6" s="9"/>
       <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43242</v>
       </c>
       <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6">
         <v>0.48</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>4.0186999999999991</v>
       </c>
-      <c r="N7" s="9"/>
       <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43258</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6">
         <v>0.49</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>60</v>
       </c>
-      <c r="H8" s="6">
-        <f>I8</f>
+      <c r="I8" s="6">
+        <f>J8</f>
         <v>3.0890000000000004</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>3.0890000000000004</v>
       </c>
-      <c r="J8" s="12">
-        <f>I8</f>
+      <c r="K8" s="12">
+        <f>J8</f>
         <v>3.0890000000000004</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43258</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6">
         <v>0.49</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>60</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>2.4636857142857149</v>
       </c>
-      <c r="I9" s="7">
+      <c r="J9" s="7">
         <v>0.6169999999999991</v>
       </c>
-      <c r="J9" s="12">
-        <f>I9+H9</f>
+      <c r="K9" s="12">
+        <f>J9+I9</f>
         <v>3.080685714285714</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>3.1850000000000003E-2</v>
       </c>
-      <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43258</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6">
         <v>0.49</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <v>60</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>2.1307000000000009</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>0.81859999999999999</v>
       </c>
-      <c r="J10" s="12">
-        <f t="shared" ref="J10:J21" si="0">I10+H10</f>
+      <c r="K10" s="12">
+        <f t="shared" ref="K10:K21" si="0">J10+I10</f>
         <v>2.9493000000000009</v>
       </c>
-      <c r="K10" s="9">
+      <c r="L10" s="9">
         <v>3.8099999999999995E-2</v>
       </c>
-      <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43258</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6">
         <v>0.49</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>60</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>3.2942</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <v>0.50120000000000076</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>3.7954000000000008</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>3.8949999999999999E-2</v>
       </c>
-      <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43258</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.49</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>60</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>3.2371999999999996</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>8.4699999999999775E-2</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>3.3218999999999994</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>3.0699999999999998E-2</v>
       </c>
-      <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43258</v>
       </c>
       <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6">
         <v>0.49</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>60</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>3.2792000000000003</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>0.15199999999999925</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>3.4311999999999996</v>
       </c>
-      <c r="K13" s="9">
+      <c r="L13" s="9">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="N13" s="9"/>
       <c r="O13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43258</v>
       </c>
       <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6">
         <v>0.49</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>60</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>3.5134999999999996</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>0.21950000000000003</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>3.7329999999999997</v>
       </c>
-      <c r="K14" s="9">
+      <c r="L14" s="9">
         <v>6.1500000000000006E-2</v>
       </c>
-      <c r="N14" s="9"/>
       <c r="O14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43258</v>
       </c>
       <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6">
         <v>0.49</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <v>60</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>3.7808999999999999</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>0.12410000000000032</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>3.9050000000000002</v>
       </c>
-      <c r="K15" s="9">
+      <c r="L15" s="9">
         <v>4.4399999999999995E-2</v>
       </c>
-      <c r="N15" s="9"/>
       <c r="O15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43264</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6">
         <v>30</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>3.0929000000000002</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>4.9500000000000099E-2</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>3.1424000000000003</v>
       </c>
-      <c r="N16" s="9"/>
       <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43264</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6">
         <v>30</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>3.5048000000000004</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>0.3642000000000003</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>3.8690000000000007</v>
       </c>
-      <c r="N17" s="9"/>
       <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43264</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6">
         <v>30</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>1.5942999999999996</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>0.12849999999999984</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>1.7227999999999994</v>
       </c>
-      <c r="N18" s="9"/>
       <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43264</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6">
         <v>30</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>4.2109999999999994</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>0.28710000000000058</v>
       </c>
-      <c r="J19" s="12">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>4.4981</v>
       </c>
-      <c r="N19" s="9"/>
       <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43264</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6">
         <v>30</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>3.2352999999999996</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>0.58030000000000115</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <f t="shared" si="0"/>
         <v>3.8156000000000008</v>
       </c>
-      <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="9"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43264</v>
       </c>
       <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
         <v>47</v>
       </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="6">
         <v>30</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>3.1165000000000003</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>0.7524999999999995</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <f t="shared" si="0"/>
         <v>3.8689999999999998</v>
       </c>
-      <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43293</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <v>0.375</v>
       </c>
-      <c r="J22" s="10">
+      <c r="K22" s="10">
         <v>4.2569999999999997</v>
       </c>
-      <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43298</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <v>0.47</v>
       </c>
-      <c r="J23" s="12">
+      <c r="K23" s="12">
         <f>7.4768-3.277</f>
         <v>4.1997999999999998</v>
       </c>
-      <c r="K23" s="9">
+      <c r="L23" s="9">
         <v>0.02</v>
       </c>
-      <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43298</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
         <v>50</v>
       </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <v>0.47</v>
       </c>
-      <c r="J24" s="12">
+      <c r="K24" s="12">
         <f>7.5523-3.2415</f>
         <v>4.3108000000000004</v>
       </c>
-      <c r="K24" s="9">
+      <c r="L24" s="9">
         <v>1.9E-2</v>
       </c>
-      <c r="N24" s="9"/>
       <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43298</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <v>0.47</v>
       </c>
-      <c r="J25" s="10">
+      <c r="K25" s="10">
         <f>7.551-3.211</f>
         <v>4.34</v>
       </c>
-      <c r="K25" s="9">
+      <c r="L25" s="9">
         <v>0.03</v>
       </c>
-      <c r="N25" s="9"/>
       <c r="O25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43298</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <v>0.47</v>
       </c>
-      <c r="J26" s="10">
+      <c r="K26" s="10">
         <f>7.2486-3.2521</f>
         <v>3.9964999999999997</v>
       </c>
-      <c r="K26" s="9">
+      <c r="L26" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N26" s="9"/>
       <c r="O26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43298</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <v>0.47</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="10">
+      <c r="J27" s="7"/>
+      <c r="K27" s="10">
         <f>7.2572-3.1967</f>
         <v>4.0605000000000002</v>
       </c>
-      <c r="K27" s="9">
+      <c r="L27" s="9">
         <v>0.03</v>
       </c>
-      <c r="N27" s="9"/>
       <c r="O27" s="9"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43298</v>
       </c>
       <c r="B28" s="2">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" t="s">
         <v>50</v>
       </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <v>0.47</v>
       </c>
-      <c r="J28" s="10">
+      <c r="K28" s="10">
         <f>7.1968-3.1967</f>
         <v>4.0000999999999998</v>
       </c>
-      <c r="K28" s="9">
+      <c r="L28" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N28" s="9"/>
       <c r="O28" s="9"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43305</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J29" s="10">
+      <c r="K29" s="10">
         <f>6.3862-3.1917</f>
         <v>3.1944999999999997</v>
       </c>
-      <c r="K29" s="9">
+      <c r="L29" s="9">
         <v>0.03</v>
       </c>
-      <c r="N29" s="9"/>
       <c r="O29" s="9"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43305</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" t="s">
         <v>45</v>
       </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J30" s="10">
+      <c r="K30" s="10">
         <f>6.6819-3.2412</f>
         <v>3.4406999999999996</v>
       </c>
-      <c r="K30" s="9">
+      <c r="L30" s="9">
         <v>0.06</v>
       </c>
-      <c r="N30" s="9"/>
       <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43305</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" t="s">
         <v>48</v>
       </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <f>6.8216-3.2054</f>
         <v>3.6162000000000001</v>
       </c>
-      <c r="J31" s="10">
+      <c r="K31" s="10">
         <f>6.1269-3.2054</f>
         <v>2.9215</v>
       </c>
-      <c r="K31" s="9">
+      <c r="L31" s="9">
         <v>0.06</v>
       </c>
-      <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43305</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <f>7.004-3.231</f>
         <v>3.7729999999999997</v>
       </c>
-      <c r="J32" s="10">
+      <c r="K32" s="10">
         <f>6.1418-3.231</f>
         <v>2.9108000000000001</v>
       </c>
-      <c r="K32" s="9">
+      <c r="L32" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="N32" s="9"/>
       <c r="O32" s="9"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43305</v>
       </c>
       <c r="B33" s="2">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J33" s="10">
+      <c r="K33" s="10">
         <f>6.844-3.254</f>
         <v>3.5900000000000003</v>
       </c>
-      <c r="K33" s="9">
+      <c r="L33" s="9">
         <v>0.05</v>
       </c>
-      <c r="N33" s="9"/>
       <c r="O33" s="9"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43305</v>
       </c>
       <c r="B34" s="2">
         <v>6</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J34" s="10">
+      <c r="K34" s="10">
         <f>6.6718-3.2044</f>
         <v>3.4674</v>
       </c>
-      <c r="K34" s="9">
+      <c r="L34" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N34" s="9"/>
       <c r="O34" s="9"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43305</v>
       </c>
       <c r="B35" s="2">
         <v>7</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" t="s">
         <v>44</v>
       </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J35" s="10">
+      <c r="K35" s="10">
         <f>7.505-3.2453</f>
         <v>4.2597000000000005</v>
       </c>
-      <c r="K35" s="9">
+      <c r="L35" s="9">
         <v>0.123</v>
       </c>
-      <c r="N35" s="9"/>
       <c r="O35" s="9"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43305</v>
       </c>
       <c r="B36" s="2">
         <v>8</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="6">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J36" s="10">
+      <c r="K36" s="10">
         <f>7.2492-3.1983</f>
         <v>4.0509000000000004</v>
       </c>
-      <c r="K36" s="9">
+      <c r="L36" s="9">
         <v>0.105</v>
       </c>
-      <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43307</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" t="s">
         <v>45</v>
       </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="6">
         <f>0.4925</f>
         <v>0.49249999999999999</v>
       </c>
-      <c r="J37" s="10">
+      <c r="K37" s="10">
         <f>7.5334-3.2795</f>
         <v>4.2538999999999998</v>
       </c>
-      <c r="K37" s="9">
+      <c r="L37" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="N37" s="9"/>
       <c r="O37" s="9"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43307</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" t="s">
         <v>50</v>
       </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" ref="F38:F40" si="1">0.4925</f>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" ref="G38:G40" si="1">0.4925</f>
         <v>0.49249999999999999</v>
       </c>
-      <c r="J38" s="10">
+      <c r="K38" s="10">
         <f>7.0615-3.1941</f>
         <v>3.8673999999999995</v>
       </c>
-      <c r="K38" s="9">
+      <c r="L38" s="9">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N38" s="9"/>
       <c r="O38" s="9"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43307</v>
       </c>
       <c r="B39" s="2">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" t="s">
         <v>50</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="6">
         <f t="shared" si="1"/>
         <v>0.49249999999999999</v>
       </c>
-      <c r="J39" s="10">
+      <c r="K39" s="10">
         <f>7.3025-3.2069</f>
         <v>4.0956000000000001</v>
       </c>
-      <c r="K39" s="9">
+      <c r="L39" s="9">
         <v>0.06</v>
       </c>
-      <c r="N39" s="9"/>
       <c r="O39" s="9"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43307</v>
       </c>
       <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" t="s">
         <v>50</v>
       </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>0.49249999999999999</v>
       </c>
-      <c r="J40" s="10">
+      <c r="K40" s="10">
         <f>7.4356-3.2144</f>
         <v>4.2211999999999996</v>
       </c>
-      <c r="K40" s="9">
+      <c r="L40" s="9">
         <v>5.5E-2</v>
       </c>
-      <c r="N40" s="9"/>
       <c r="O40" s="9"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43312</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" t="s">
         <v>51</v>
       </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="6">
         <v>0.46250000000000002</v>
       </c>
-      <c r="J41" s="10">
+      <c r="K41" s="10">
         <f>6.7777-3.218</f>
         <v>3.5597000000000003</v>
       </c>
-      <c r="K41" s="9">
+      <c r="L41" s="9">
         <v>0</v>
       </c>
-      <c r="N41" s="9"/>
       <c r="O41" s="9"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43312</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" t="s">
         <v>51</v>
       </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="6">
         <v>0.46250000000000002</v>
       </c>
-      <c r="J42" s="10">
+      <c r="K42" s="10">
         <f>6.8167-3.2292</f>
         <v>3.5874999999999999</v>
       </c>
-      <c r="K42" s="9">
+      <c r="L42" s="9">
         <v>1E-4</v>
       </c>
-      <c r="N42" s="9"/>
       <c r="O42" s="9"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43312</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" t="s">
         <v>51</v>
       </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="6">
         <v>0.46250000000000002</v>
       </c>
-      <c r="J43" s="10">
+      <c r="K43" s="10">
         <f>6.6962-3.1892</f>
         <v>3.5070000000000001</v>
       </c>
-      <c r="K43" s="9">
+      <c r="L43" s="9">
         <v>0</v>
       </c>
-      <c r="N43" s="9"/>
       <c r="O43" s="9"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43312</v>
       </c>
       <c r="B44" s="2">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" t="s">
         <v>51</v>
       </c>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="6">
         <v>0.46250000000000002</v>
       </c>
-      <c r="J44" s="10">
+      <c r="K44" s="10">
         <f>6.5128-3.235</f>
         <v>3.2778000000000005</v>
       </c>
-      <c r="K44" s="9">
+      <c r="L44" s="9">
         <v>0</v>
       </c>
-      <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43312</v>
       </c>
       <c r="B45" s="2">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" t="s">
         <v>51</v>
       </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="6">
         <v>0.46250000000000002</v>
       </c>
-      <c r="J45" s="10">
+      <c r="K45" s="10">
         <f>6.7335-3.2202</f>
         <v>3.5133000000000001</v>
       </c>
-      <c r="K45" s="9">
+      <c r="L45" s="9">
         <v>0</v>
       </c>
-      <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43312</v>
       </c>
       <c r="B46" s="2">
         <v>6</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" t="s">
         <v>51</v>
       </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="6">
         <v>0.46250000000000002</v>
       </c>
-      <c r="J46" s="10">
+      <c r="K46" s="10">
         <f>6.5671-3.2961</f>
         <v>3.2709999999999999</v>
       </c>
-      <c r="K46" s="9">
+      <c r="L46" s="9">
         <v>0</v>
       </c>
-      <c r="N46" s="9"/>
       <c r="O46" s="9"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43312</v>
       </c>
       <c r="B47" s="2">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" t="s">
         <v>51</v>
       </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="6">
         <v>0.46250000000000002</v>
       </c>
-      <c r="J47" s="10">
+      <c r="K47" s="10">
         <f>6.6494-3.1486</f>
         <v>3.5007999999999999</v>
       </c>
-      <c r="K47" s="9">
+      <c r="L47" s="9">
         <v>0</v>
       </c>
-      <c r="N47" s="9"/>
       <c r="O47" s="9"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43314</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" t="s">
         <v>58</v>
       </c>
-      <c r="D48">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="6">
         <v>0.46375</v>
       </c>
-      <c r="J48" s="10">
+      <c r="K48" s="10">
         <f>7.2298-3.2043</f>
         <v>4.0255000000000001</v>
       </c>
-      <c r="K48" s="9">
+      <c r="L48" s="9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N48" s="9"/>
       <c r="O48" s="9"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43314</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" t="s">
         <v>58</v>
       </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="6">
         <v>0.46375</v>
       </c>
-      <c r="J49" s="10">
+      <c r="K49" s="10">
         <f>7.3761-3.2445</f>
         <v>4.1316000000000006</v>
       </c>
-      <c r="K49" s="9">
+      <c r="L49" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N49" s="9"/>
       <c r="O49" s="9"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43314</v>
       </c>
       <c r="B50" s="2">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" t="s">
         <v>58</v>
       </c>
-      <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="6">
         <v>0.46375</v>
       </c>
-      <c r="J50" s="10">
+      <c r="K50" s="10">
         <f>7.1177-3.258</f>
         <v>3.8597000000000001</v>
       </c>
-      <c r="K50" s="9">
+      <c r="L50" s="9">
         <v>0</v>
       </c>
-      <c r="N50" s="9"/>
       <c r="O50" s="9"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43314</v>
       </c>
       <c r="B51" s="2">
         <v>4</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" t="s">
         <v>58</v>
       </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="6">
         <v>0.46375</v>
       </c>
-      <c r="J51" s="10">
+      <c r="K51" s="10">
         <f>7.2292-3.2831</f>
         <v>3.9460999999999995</v>
       </c>
-      <c r="K51" s="9">
+      <c r="L51" s="9">
         <v>0</v>
       </c>
-      <c r="N51" s="9"/>
       <c r="O51" s="9"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43314</v>
       </c>
       <c r="B52" s="2">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" t="s">
         <v>58</v>
       </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="6">
         <v>0.46375</v>
       </c>
-      <c r="J52" s="10">
+      <c r="K52" s="10">
         <f>6.9609-3.2199</f>
         <v>3.7409999999999997</v>
       </c>
-      <c r="K52" s="9">
+      <c r="L52" s="9">
         <v>1E-3</v>
       </c>
-      <c r="N52" s="9"/>
       <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43314</v>
       </c>
       <c r="B53" s="2">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" t="s">
         <v>58</v>
       </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="6">
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="6">
         <v>0.46375</v>
       </c>
-      <c r="J53" s="10">
+      <c r="K53" s="10">
         <f>7.019-3.1711</f>
         <v>3.8479000000000001</v>
       </c>
-      <c r="K53" s="9">
+      <c r="L53" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N53" s="9"/>
       <c r="O53" s="9"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43314</v>
       </c>
       <c r="B54" s="2">
         <v>7</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" t="s">
         <v>58</v>
       </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="6">
         <v>0.46375</v>
       </c>
-      <c r="J54" s="10">
+      <c r="K54" s="10">
         <f>7.0516-3.1937</f>
         <v>3.8578999999999994</v>
       </c>
-      <c r="K54" s="9">
+      <c r="L54" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N54" s="9"/>
       <c r="O54" s="9"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" s="9"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43314</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" t="s">
         <v>58</v>
       </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="6">
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="6">
         <v>0.46375</v>
       </c>
-      <c r="J55" s="10">
+      <c r="K55" s="10">
         <f>7.1378-3.2269</f>
         <v>3.9109000000000003</v>
       </c>
-      <c r="K55" s="9">
+      <c r="L55" s="9">
         <v>0</v>
       </c>
-      <c r="N55" s="9"/>
       <c r="O55" s="9"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43319</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="6">
         <v>0.52249999999999996</v>
       </c>
-      <c r="J56" s="10">
+      <c r="K56" s="10">
         <f>6.6155-3.1977</f>
         <v>3.4177999999999997</v>
       </c>
-      <c r="K56" s="9">
+      <c r="L56" s="9">
         <v>0.03</v>
       </c>
-      <c r="N56" s="9"/>
       <c r="O56" s="9"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="9"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43319</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="6">
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="6">
         <v>0.52249999999999996</v>
       </c>
-      <c r="J57" s="10">
+      <c r="K57" s="10">
         <f>6.8444-3.2468</f>
         <v>3.5976000000000004</v>
       </c>
-      <c r="K57" s="9">
+      <c r="L57" s="9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N57" s="9"/>
       <c r="O57" s="9"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" s="9"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43319</v>
       </c>
       <c r="B58" s="2">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" t="s">
         <v>52</v>
       </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="6">
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="6">
         <v>0.52249999999999996</v>
       </c>
-      <c r="J58" s="10">
+      <c r="K58" s="10">
         <f>6.7881-3.2176</f>
         <v>3.5705</v>
       </c>
-      <c r="K58" s="9">
+      <c r="L58" s="9">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N58" s="9"/>
       <c r="O58" s="9"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="9"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43319</v>
       </c>
       <c r="B59" s="2">
         <v>4</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="6">
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="6">
         <v>0.52249999999999996</v>
       </c>
-      <c r="J59" s="10">
+      <c r="K59" s="10">
         <f>6.975-3.211</f>
         <v>3.7639999999999998</v>
       </c>
-      <c r="K59" s="9">
+      <c r="L59" s="9">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N59" s="9"/>
       <c r="O59" s="9"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="9"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43319</v>
       </c>
       <c r="B60" s="2">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" t="s">
         <v>52</v>
       </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="6">
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="6">
         <v>0.52249999999999996</v>
       </c>
-      <c r="J60" s="10">
+      <c r="K60" s="10">
         <f>6.7054-3.1923</f>
         <v>3.5131000000000001</v>
       </c>
-      <c r="K60" s="9">
+      <c r="L60" s="9">
         <v>0.01</v>
       </c>
-      <c r="N60" s="9"/>
       <c r="O60" s="9"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="9"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43319</v>
       </c>
       <c r="B61" s="2">
         <v>6</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" t="s">
         <v>52</v>
       </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="6">
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="6">
         <v>0.52249999999999996</v>
       </c>
-      <c r="J61" s="10">
+      <c r="K61" s="10">
         <f>6.7717-3.271</f>
         <v>3.5007000000000001</v>
       </c>
-      <c r="N61" s="9"/>
       <c r="O61" s="9"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="9"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43321</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" t="s">
         <v>58</v>
       </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="6">
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="6">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G62" s="6">
+      <c r="H62" s="6">
         <v>180</v>
       </c>
-      <c r="J62" s="10">
+      <c r="K62" s="10">
         <f>6.9936-3.2706</f>
         <v>3.7229999999999999</v>
       </c>
-      <c r="K62" s="9">
+      <c r="L62" s="9">
         <v>0.03</v>
       </c>
-      <c r="N62" s="9"/>
       <c r="O62" s="9"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="9"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43321</v>
       </c>
       <c r="B63" s="2">
         <v>2</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" t="s">
         <v>58</v>
       </c>
-      <c r="D63">
-        <v>4</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="6">
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="6">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G63" s="6">
+      <c r="H63" s="6">
         <v>180</v>
       </c>
-      <c r="J63" s="10">
+      <c r="K63" s="10">
         <f>7.3133-3.277</f>
         <v>4.0362999999999998</v>
       </c>
-      <c r="K63" s="9">
+      <c r="L63" s="9">
         <v>0.05</v>
       </c>
-      <c r="N63" s="9"/>
       <c r="O63" s="9"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" s="9"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43321</v>
       </c>
       <c r="B64" s="2">
         <v>3</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" t="s">
         <v>58</v>
       </c>
-      <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="6">
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="6">
         <v>0.60250000000000004</v>
       </c>
-      <c r="G64" s="6">
+      <c r="H64" s="6">
         <v>180</v>
       </c>
-      <c r="J64" s="10">
+      <c r="K64" s="10">
         <f>6.8363-3.216</f>
         <v>3.6202999999999994</v>
       </c>
-      <c r="K64" s="9">
+      <c r="L64" s="9">
         <v>0.155</v>
       </c>
-      <c r="N64" s="9"/>
       <c r="O64" s="9"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" s="9"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43321</v>
       </c>
       <c r="B65" s="2">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" t="s">
         <v>58</v>
       </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="6">
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="6">
         <v>0.6</v>
       </c>
-      <c r="G65" s="6">
+      <c r="H65" s="6">
         <v>180</v>
       </c>
-      <c r="J65" s="10">
+      <c r="K65" s="10">
         <f>6.8964-3.2236</f>
         <v>3.6728000000000001</v>
       </c>
-      <c r="K65" s="9">
+      <c r="L65" s="9">
         <v>0.16300000000000001</v>
       </c>
-      <c r="N65" s="9"/>
       <c r="O65" s="9"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" s="9"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43321</v>
       </c>
       <c r="B66" s="2">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" t="s">
         <v>58</v>
       </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="6">
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="6">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G66" s="6">
+      <c r="H66" s="6">
         <v>180</v>
       </c>
-      <c r="J66" s="10">
+      <c r="K66" s="10">
         <f>7.1059-3.2819</f>
         <v>3.8240000000000003</v>
       </c>
-      <c r="K66" s="9">
+      <c r="L66" s="9">
         <v>0.1</v>
       </c>
-      <c r="N66" s="9"/>
       <c r="O66" s="9"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" s="9"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43321</v>
       </c>
       <c r="B67" s="2">
         <v>6</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" t="s">
         <v>58</v>
       </c>
-      <c r="D67">
-        <v>4</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="6">
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G67" s="6">
+      <c r="H67" s="6">
         <v>180</v>
       </c>
-      <c r="J67" s="10">
+      <c r="K67" s="10">
         <f>7.0064-3.2121</f>
         <v>3.7943000000000002</v>
       </c>
-      <c r="K67" s="9">
+      <c r="L67" s="9">
         <v>0.1</v>
       </c>
-      <c r="N67" s="9"/>
       <c r="O67" s="9"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" s="9"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43321</v>
       </c>
       <c r="B68" s="2">
         <v>7</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2"/>
+      <c r="D68" t="s">
         <v>58</v>
       </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="6">
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="6">
         <v>0.42499999999999999</v>
       </c>
-      <c r="G68" s="6">
+      <c r="H68" s="6">
         <v>180</v>
       </c>
-      <c r="J68" s="10">
+      <c r="K68" s="10">
         <f>7.162-3.2001</f>
         <v>3.9619</v>
       </c>
-      <c r="K68" s="9">
+      <c r="L68" s="9">
         <v>0</v>
       </c>
-      <c r="N68" s="9"/>
       <c r="O68" s="9"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="9"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43326</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" t="s">
         <v>58</v>
       </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="6">
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="6">
         <v>0.505</v>
       </c>
-      <c r="G69" s="6">
+      <c r="H69" s="6">
         <v>180</v>
       </c>
-      <c r="J69" s="10">
+      <c r="K69" s="10">
         <f>6.8855-3.214</f>
         <v>3.6715000000000004</v>
       </c>
-      <c r="K69" s="9">
+      <c r="L69" s="9">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="N69" s="9"/>
       <c r="O69" s="9"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" s="9"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43326</v>
       </c>
       <c r="B70" s="2">
         <v>2</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2"/>
+      <c r="D70" t="s">
         <v>58</v>
       </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="6">
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="6">
         <v>0.505</v>
       </c>
-      <c r="G70" s="6">
+      <c r="H70" s="6">
         <v>180</v>
       </c>
-      <c r="J70" s="10">
+      <c r="K70" s="10">
         <f>6.9765-3.2169</f>
         <v>3.7595999999999998</v>
       </c>
-      <c r="K70" s="9">
+      <c r="L70" s="9">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N70" s="9"/>
       <c r="O70" s="9"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="9"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43326</v>
       </c>
       <c r="B71" s="2">
         <v>3</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" t="s">
         <v>58</v>
       </c>
-      <c r="D71">
-        <v>4</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="6">
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="6">
         <v>0.505</v>
       </c>
-      <c r="G71" s="6">
+      <c r="H71" s="6">
         <v>180</v>
       </c>
-      <c r="J71" s="10">
+      <c r="K71" s="10">
         <f>7.0388-3.2793</f>
         <v>3.7595000000000001</v>
       </c>
-      <c r="K71" s="9">
+      <c r="L71" s="9">
         <v>1.6E-2</v>
       </c>
-      <c r="N71" s="9"/>
       <c r="O71" s="9"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="9"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43326</v>
       </c>
       <c r="B72" s="2">
         <v>4</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" t="s">
         <v>58</v>
       </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="6">
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="6">
         <v>0.438</v>
       </c>
-      <c r="G72" s="6">
+      <c r="H72" s="6">
         <v>180</v>
       </c>
-      <c r="J72" s="10">
+      <c r="K72" s="10">
         <f>7.2754-3.2405</f>
         <v>4.0349000000000004</v>
       </c>
-      <c r="K72" s="9">
+      <c r="L72" s="9">
         <v>0</v>
       </c>
-      <c r="N72" s="9"/>
       <c r="O72" s="9"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" s="9"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43326</v>
       </c>
       <c r="B73" s="2">
         <v>5</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" t="s">
         <v>58</v>
       </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="6">
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G73" s="6">
+      <c r="H73" s="6">
         <v>180</v>
       </c>
-      <c r="J73" s="10">
+      <c r="K73" s="10">
         <f>6.966-3.2133</f>
         <v>3.7527000000000004</v>
       </c>
-      <c r="K73" s="9">
+      <c r="L73" s="9">
         <f>0.6/4.88</f>
         <v>0.12295081967213115</v>
       </c>
-      <c r="N73" s="9"/>
       <c r="O73" s="9"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" s="9"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43326</v>
       </c>
       <c r="B74" s="2">
         <v>6</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" t="s">
         <v>58</v>
       </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="6">
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="6">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G74" s="6">
+      <c r="H74" s="6">
         <v>180</v>
       </c>
-      <c r="J74" s="10">
+      <c r="K74" s="10">
         <f>7.1271-3.2539</f>
         <v>3.8732000000000006</v>
       </c>
-      <c r="N74" s="9"/>
       <c r="O74" s="9"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" s="9"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43326</v>
       </c>
       <c r="B75" s="2">
         <v>7</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" t="s">
         <v>58</v>
       </c>
-      <c r="D75">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="6">
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="6">
         <v>0.42</v>
       </c>
-      <c r="G75" s="6">
+      <c r="H75" s="6">
         <v>180</v>
       </c>
-      <c r="J75" s="10">
+      <c r="K75" s="10">
         <f>7.1299-3.1727</f>
         <v>3.9572000000000003</v>
       </c>
-      <c r="K75" s="9">
+      <c r="L75" s="9">
         <v>0</v>
       </c>
-      <c r="N75" s="9"/>
       <c r="O75" s="9"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" s="9"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43328</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" t="s">
         <v>53</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="6">
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G76" s="6">
+      <c r="H76" s="6">
         <v>180</v>
       </c>
-      <c r="J76" s="10">
+      <c r="K76" s="10">
         <f>6.8743-3.2022</f>
         <v>3.6720999999999999</v>
       </c>
-      <c r="K76" s="9">
+      <c r="L76" s="9">
         <v>0.155</v>
       </c>
-      <c r="N76" s="9"/>
       <c r="O76" s="9"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" s="9"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43328</v>
       </c>
       <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" t="s">
         <v>54</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>5</v>
       </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="6">
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="6">
         <v>0.65200000000000002</v>
       </c>
-      <c r="G77" s="6">
+      <c r="H77" s="6">
         <v>180</v>
       </c>
-      <c r="J77" s="10">
+      <c r="K77" s="10">
         <f>7.4326-3.2338</f>
         <v>4.1988000000000003</v>
       </c>
-      <c r="K77" s="9">
+      <c r="L77" s="9">
         <v>0.19500000000000001</v>
       </c>
-      <c r="N77" s="9"/>
       <c r="O77" s="9"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" s="9"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43328</v>
       </c>
       <c r="B78" s="2">
         <v>5</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" t="s">
         <v>54</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>5</v>
       </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="6">
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="6">
         <v>0.63</v>
       </c>
-      <c r="G78" s="6">
+      <c r="H78" s="6">
         <v>180</v>
       </c>
-      <c r="J78" s="10">
+      <c r="K78" s="10">
         <f>7.2638-3.2347</f>
         <v>4.0290999999999997</v>
       </c>
-      <c r="K78" s="9">
+      <c r="L78" s="9">
         <v>0.15</v>
       </c>
-      <c r="N78" s="9"/>
       <c r="O78" s="9"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" s="9"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43328</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2"/>
+      <c r="D79" t="s">
         <v>54</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>5</v>
       </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="6">
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="6">
         <v>0.46</v>
       </c>
-      <c r="G79" s="6">
+      <c r="H79" s="6">
         <v>180</v>
       </c>
-      <c r="J79" s="10">
+      <c r="K79" s="10">
         <f>6.9352-3.1927</f>
         <v>3.7425000000000002</v>
       </c>
-      <c r="K79" s="9">
+      <c r="L79" s="9">
         <v>0</v>
       </c>
-      <c r="N79" s="9"/>
       <c r="O79" s="9"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" s="9"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43328</v>
       </c>
       <c r="B80" s="2">
         <v>2</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" t="s">
         <v>53</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>3</v>
       </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="6">
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="6">
         <v>0.46</v>
       </c>
-      <c r="G80" s="6">
+      <c r="H80" s="6">
         <v>180</v>
       </c>
-      <c r="J80" s="10">
+      <c r="K80" s="10">
         <f>6.6228-3.1679</f>
         <v>3.4548999999999999</v>
       </c>
-      <c r="K80" s="9">
+      <c r="L80" s="9">
         <v>0.01</v>
       </c>
-      <c r="N80" s="9"/>
       <c r="O80" s="9"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P80" s="9"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43328</v>
       </c>
       <c r="B81" s="2">
         <v>3</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" t="s">
         <v>53</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>3</v>
       </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="6">
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="6">
         <v>0.46</v>
       </c>
-      <c r="G81" s="6">
+      <c r="H81" s="6">
         <v>180</v>
       </c>
-      <c r="J81" s="10">
+      <c r="K81" s="10">
         <f>6.72-3.2171</f>
         <v>3.5028999999999999</v>
       </c>
-      <c r="K81" s="9">
+      <c r="L81" s="9">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N81" s="9"/>
       <c r="O81" s="9"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P81" s="9"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43328</v>
       </c>
       <c r="B82" s="2">
         <v>4</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" t="s">
         <v>53</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>3</v>
       </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="6">
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="6">
         <v>0.47299999999999998</v>
       </c>
-      <c r="G82" s="6">
+      <c r="H82" s="6">
         <v>180</v>
       </c>
-      <c r="J82" s="10">
+      <c r="K82" s="10">
         <f>6.7583-3.2045</f>
         <v>3.5538000000000003</v>
       </c>
-      <c r="K82" s="9">
+      <c r="L82" s="9">
         <v>0.04</v>
       </c>
-      <c r="N82" s="9"/>
       <c r="O82" s="9"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P82" s="9"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43328</v>
       </c>
       <c r="B83" s="2">
         <v>5</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2"/>
+      <c r="D83" t="s">
         <v>53</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>3</v>
       </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="6">
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="6">
         <v>0.52200000000000002</v>
       </c>
-      <c r="G83" s="6">
+      <c r="H83" s="6">
         <v>180</v>
       </c>
-      <c r="J83" s="10">
+      <c r="K83" s="10">
         <f>6.7583-3.2045</f>
         <v>3.5538000000000003</v>
       </c>
-      <c r="K83" s="9">
+      <c r="L83" s="9">
         <v>0.105</v>
       </c>
-      <c r="N83" s="9"/>
       <c r="O83" s="9"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P83" s="9"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43328</v>
       </c>
       <c r="B84" s="2">
         <v>6</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2"/>
+      <c r="D84" t="s">
         <v>53</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>3</v>
       </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="6">
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="6">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G84" s="6">
+      <c r="H84" s="6">
         <v>180</v>
       </c>
-      <c r="J84" s="10">
+      <c r="K84" s="10">
         <f>6.7735-3.2398</f>
         <v>3.5337000000000005</v>
       </c>
-      <c r="K84" s="9">
+      <c r="L84" s="9">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="N84" s="9"/>
       <c r="O84" s="9"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P84" s="9"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43328</v>
       </c>
       <c r="B85" s="2">
         <v>7</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" t="s">
         <v>53</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>3</v>
       </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="6">
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="6">
         <v>180</v>
       </c>
-      <c r="J85" s="10">
+      <c r="K85" s="10">
         <f>6.6453-3.2009</f>
         <v>3.4443999999999999</v>
       </c>
-      <c r="K85" s="9">
+      <c r="L85" s="9">
         <v>0.23</v>
       </c>
-      <c r="N85" s="9"/>
       <c r="O85" s="9"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P85" s="9"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43333</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" t="s">
         <v>54</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>5</v>
       </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="6">
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="6">
         <v>0.502</v>
       </c>
-      <c r="G86" s="6">
+      <c r="H86" s="6">
         <v>180</v>
       </c>
-      <c r="J86" s="10">
+      <c r="K86" s="10">
         <v>3.8309000000000002</v>
       </c>
-      <c r="K86" s="9">
+      <c r="L86" s="9">
         <v>1E-3</v>
       </c>
-      <c r="N86" s="10">
+      <c r="O86" s="10">
         <v>4.8050000000000068</v>
       </c>
-      <c r="O86" s="10">
+      <c r="P86" s="10">
         <v>0.19230000000000302</v>
       </c>
-      <c r="P86" s="10">
-        <f>N86-O86</f>
+      <c r="Q86" s="10">
+        <f>O86-P86</f>
         <v>4.6127000000000038</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43333</v>
       </c>
       <c r="B87" s="2">
         <v>2</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" t="s">
         <v>54</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>5</v>
       </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="6">
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="6">
         <v>0.55400000000000005</v>
       </c>
-      <c r="G87" s="6">
+      <c r="H87" s="6">
         <v>180</v>
       </c>
-      <c r="J87" s="10">
+      <c r="K87" s="10">
         <v>3.9666000000000001</v>
       </c>
-      <c r="K87" s="9">
+      <c r="L87" s="9">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N87" s="10">
+      <c r="O87" s="10">
         <v>4.9771000000000072</v>
       </c>
-      <c r="O87" s="10">
+      <c r="P87" s="10">
         <v>0.39730000000000132</v>
       </c>
-      <c r="P87" s="10">
-        <f t="shared" ref="P87:P104" si="2">N87-O87</f>
+      <c r="Q87" s="10">
+        <f t="shared" ref="Q87:Q104" si="2">O87-P87</f>
         <v>4.5798000000000059</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43333</v>
       </c>
       <c r="B88" s="2">
         <v>3</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" t="s">
         <v>54</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>5</v>
       </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="6">
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G88" s="6">
+      <c r="H88" s="6">
         <v>180</v>
       </c>
-      <c r="J88" s="10">
+      <c r="K88" s="10">
         <v>4.1524000000000001</v>
       </c>
-      <c r="K88" s="9">
+      <c r="L88" s="9">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="N88" s="10">
+      <c r="O88" s="10">
         <v>4.9440000000000026</v>
       </c>
-      <c r="O88" s="10">
+      <c r="P88" s="10">
         <v>0.27400000000000091</v>
       </c>
-      <c r="P88" s="10">
+      <c r="Q88" s="10">
         <f t="shared" si="2"/>
         <v>4.6700000000000017</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43333</v>
       </c>
       <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2"/>
+      <c r="D89" t="s">
         <v>54</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>5</v>
       </c>
-      <c r="E89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="6">
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="6">
         <v>0.60099999999999998</v>
       </c>
-      <c r="G89" s="6">
+      <c r="H89" s="6">
         <v>180</v>
       </c>
-      <c r="J89" s="10">
+      <c r="K89" s="10">
         <v>4.2434000000000003</v>
       </c>
-      <c r="K89" s="9">
+      <c r="L89" s="9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="N89" s="10">
+      <c r="O89" s="10">
         <v>4.8910000000000053</v>
       </c>
-      <c r="O89" s="10">
+      <c r="P89" s="10">
         <v>0.18160000000000309</v>
       </c>
-      <c r="P89" s="10">
+      <c r="Q89" s="10">
         <f t="shared" si="2"/>
         <v>4.7094000000000023</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43333</v>
       </c>
       <c r="B90" s="2">
         <v>5</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" t="s">
         <v>54</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>5</v>
       </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="6">
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="6">
         <v>0.60799999999999998</v>
       </c>
-      <c r="G90" s="6">
+      <c r="H90" s="6">
         <v>180</v>
       </c>
-      <c r="J90" s="10">
+      <c r="K90" s="10">
         <v>4.1429999999999998</v>
       </c>
-      <c r="K90" s="9">
+      <c r="L90" s="9">
         <v>0.14099999999999999</v>
       </c>
-      <c r="N90" s="10">
+      <c r="O90" s="10">
         <v>4.9699999999999989</v>
       </c>
-      <c r="O90" s="10">
+      <c r="P90" s="10">
         <v>0.33789999999999054</v>
       </c>
-      <c r="P90" s="10">
+      <c r="Q90" s="10">
         <f t="shared" si="2"/>
         <v>4.6321000000000083</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43333</v>
       </c>
       <c r="B91" s="2">
         <v>6</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" t="s">
         <v>54</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>5</v>
       </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="6">
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="6">
         <v>0.52400000000000002</v>
       </c>
-      <c r="G91" s="6">
+      <c r="H91" s="6">
         <v>180</v>
       </c>
-      <c r="J91" s="10">
+      <c r="K91" s="10">
         <v>4.2027999999999999</v>
       </c>
-      <c r="K91" s="9">
+      <c r="L91" s="9">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N91" s="10">
+      <c r="O91" s="10">
         <v>4.9440000000000026</v>
       </c>
-      <c r="P91" s="10"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91" s="10"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43334</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" t="s">
         <v>58</v>
       </c>
-      <c r="D92">
-        <v>4</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="6">
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="6">
         <v>0.48</v>
       </c>
-      <c r="G92" s="6">
+      <c r="H92" s="6">
         <v>30</v>
       </c>
-      <c r="J92" s="10">
+      <c r="K92" s="10">
         <v>3.6593</v>
       </c>
-      <c r="K92" s="9">
+      <c r="L92" s="9">
         <v>0</v>
       </c>
-      <c r="P92" s="10"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92" s="10"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43334</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" t="s">
         <v>58</v>
       </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" s="6">
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="6">
         <v>0.48</v>
       </c>
-      <c r="G93" s="6">
+      <c r="H93" s="6">
         <v>30</v>
       </c>
-      <c r="J93" s="10">
+      <c r="K93" s="10">
         <v>3.5756999999999999</v>
       </c>
-      <c r="K93" s="9">
+      <c r="L93" s="9">
         <v>1E-3</v>
       </c>
-      <c r="N93" s="10">
+      <c r="O93" s="10">
         <v>5.0288000000000039</v>
       </c>
-      <c r="O93" s="10">
+      <c r="P93" s="10">
         <v>0.56930000000001257</v>
       </c>
-      <c r="P93" s="10">
+      <c r="Q93" s="10">
         <f t="shared" si="2"/>
         <v>4.4594999999999914</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43334</v>
       </c>
       <c r="B94" s="2">
         <v>3</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" t="s">
         <v>58</v>
       </c>
-      <c r="D94">
-        <v>4</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" s="6">
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="6">
         <v>0.48</v>
       </c>
-      <c r="G94" s="6">
+      <c r="H94" s="6">
         <v>0</v>
       </c>
-      <c r="J94" s="10">
+      <c r="K94" s="10">
         <v>3.7069999999999999</v>
       </c>
-      <c r="K94" s="9">
+      <c r="L94" s="9">
         <v>1E-3</v>
       </c>
-      <c r="N94" s="10">
+      <c r="O94" s="10">
         <v>4.8084999999999951</v>
       </c>
-      <c r="O94" s="10">
+      <c r="P94" s="10">
         <v>0.42539999999999623</v>
       </c>
-      <c r="P94" s="10">
+      <c r="Q94" s="10">
         <f t="shared" si="2"/>
         <v>4.3830999999999989</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43334</v>
       </c>
       <c r="B95" s="2">
         <v>4</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" t="s">
         <v>58</v>
       </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="6">
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="6">
         <v>0.48</v>
       </c>
-      <c r="G95" s="6">
+      <c r="H95" s="6">
         <v>60</v>
       </c>
-      <c r="J95" s="10">
+      <c r="K95" s="10">
         <v>3.8822000000000001</v>
       </c>
-      <c r="K95" s="9">
+      <c r="L95" s="9">
         <v>0.01</v>
       </c>
-      <c r="N95" s="10">
+      <c r="O95" s="10">
         <v>4.7087999999999965</v>
       </c>
-      <c r="O95" s="10">
+      <c r="P95" s="10">
         <v>0.30830000000000268</v>
       </c>
-      <c r="P95" s="10">
+      <c r="Q95" s="10">
         <f t="shared" si="2"/>
         <v>4.4004999999999939</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43334</v>
       </c>
       <c r="B96" s="2">
         <v>5</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" t="s">
         <v>58</v>
       </c>
-      <c r="D96">
-        <v>4</v>
-      </c>
-      <c r="E96" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="6">
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="6">
         <v>0.48</v>
       </c>
-      <c r="G96" s="6">
+      <c r="H96" s="6">
         <v>60</v>
       </c>
-      <c r="J96" s="10">
+      <c r="K96" s="10">
         <v>3.8551000000000002</v>
       </c>
-      <c r="K96" s="9">
+      <c r="L96" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N96" s="10">
+      <c r="O96" s="10">
         <v>4.7257000000000033</v>
       </c>
-      <c r="O96" s="10">
+      <c r="P96" s="10">
         <v>0.36320000000000618</v>
       </c>
-      <c r="P96" s="10">
+      <c r="Q96" s="10">
         <f t="shared" si="2"/>
         <v>4.3624999999999972</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43334</v>
       </c>
       <c r="B97" s="2">
         <v>6</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" t="s">
         <v>58</v>
       </c>
-      <c r="D97">
-        <v>4</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="6">
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="6">
         <v>0.48</v>
       </c>
-      <c r="G97" s="6">
+      <c r="H97" s="6">
         <v>0</v>
       </c>
-      <c r="J97" s="10">
+      <c r="K97" s="10">
         <v>3.8403999999999998</v>
       </c>
-      <c r="K97" s="9">
+      <c r="L97" s="9">
         <v>1E-3</v>
       </c>
-      <c r="N97" s="10">
+      <c r="O97" s="10">
         <v>4.730400000000003</v>
       </c>
-      <c r="O97" s="10">
+      <c r="P97" s="10">
         <v>0.42330000000001178</v>
       </c>
-      <c r="P97" s="10">
+      <c r="Q97" s="10">
         <f t="shared" si="2"/>
         <v>4.3070999999999913</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43340</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" t="s">
         <v>58</v>
       </c>
-      <c r="D98">
-        <v>4</v>
-      </c>
-      <c r="E98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="6">
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G98" s="6">
+      <c r="H98" s="6">
         <v>30</v>
       </c>
-      <c r="J98" s="10">
+      <c r="K98" s="10">
         <v>3.3854000000000002</v>
       </c>
-      <c r="K98" s="9">
+      <c r="L98" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M98" s="9">
+      <c r="N98" s="9">
         <v>0.84</v>
       </c>
-      <c r="N98" s="10">
+      <c r="O98" s="10">
         <v>4.7156999999999982</v>
       </c>
-      <c r="O98" s="10">
+      <c r="P98" s="10">
         <v>0.28279999999999461</v>
       </c>
-      <c r="P98" s="10">
+      <c r="Q98" s="10">
         <f t="shared" si="2"/>
         <v>4.4329000000000036</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43340</v>
       </c>
       <c r="B99" s="2">
         <v>2</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" t="s">
         <v>58</v>
       </c>
-      <c r="D99">
-        <v>4</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="6">
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G99" s="6">
+      <c r="H99" s="6">
         <v>60</v>
       </c>
-      <c r="J99" s="10">
+      <c r="K99" s="10">
         <v>3.7955999999999999</v>
       </c>
-      <c r="K99" s="9">
+      <c r="L99" s="9">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M99" s="9">
+      <c r="N99" s="9">
         <v>0.86</v>
       </c>
-      <c r="N99" s="10">
+      <c r="O99" s="10">
         <v>4.816900000000004</v>
       </c>
-      <c r="O99" s="10">
+      <c r="P99" s="10">
         <v>0.42970000000001107</v>
       </c>
-      <c r="P99" s="10">
+      <c r="Q99" s="10">
         <f t="shared" si="2"/>
         <v>4.3871999999999929</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43340</v>
       </c>
       <c r="B100" s="2">
         <v>3</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2"/>
+      <c r="D100" t="s">
         <v>58</v>
       </c>
-      <c r="D100">
-        <v>4</v>
-      </c>
-      <c r="E100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="6">
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G100" s="6">
+      <c r="H100" s="6">
         <v>30</v>
       </c>
-      <c r="J100" s="10">
+      <c r="K100" s="10">
         <v>3.7587999999999999</v>
       </c>
-      <c r="K100" s="9">
+      <c r="L100" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="M100" s="9">
+      <c r="N100" s="9">
         <v>0.83599999999999997</v>
       </c>
-      <c r="N100" s="10">
+      <c r="O100" s="10">
         <v>4.7870999999999952</v>
       </c>
-      <c r="O100" s="10">
+      <c r="P100" s="10">
         <v>0.34669999999999845</v>
       </c>
-      <c r="P100" s="10">
+      <c r="Q100" s="10">
         <f t="shared" si="2"/>
         <v>4.4403999999999968</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43340</v>
       </c>
       <c r="B101" s="2">
         <v>4</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2"/>
+      <c r="D101" t="s">
         <v>58</v>
       </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="6">
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G101" s="6">
+      <c r="H101" s="6">
         <v>0</v>
       </c>
-      <c r="J101" s="10">
+      <c r="K101" s="10">
         <v>3.9171</v>
       </c>
-      <c r="K101" s="9">
+      <c r="L101" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="M101" s="9">
+      <c r="N101" s="9">
         <v>0.88</v>
       </c>
-      <c r="P101" s="10">
+      <c r="Q101" s="10">
         <v>4.4030999999999949</v>
       </c>
-      <c r="R101" s="10"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101" s="10"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43340</v>
       </c>
       <c r="B102" s="2">
         <v>5</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2"/>
+      <c r="D102" t="s">
         <v>58</v>
       </c>
-      <c r="D102">
-        <v>4</v>
-      </c>
-      <c r="E102" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="6">
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G102" s="6">
+      <c r="H102" s="6">
         <v>60</v>
       </c>
-      <c r="J102" s="10">
+      <c r="K102" s="10">
         <v>3.9285999999999999</v>
       </c>
-      <c r="K102" s="9">
+      <c r="L102" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="N102" s="10">
+      <c r="O102" s="10">
         <v>4.7680000000000007</v>
       </c>
-      <c r="O102" s="10">
+      <c r="P102" s="10">
         <v>0.32210000000000605</v>
       </c>
-      <c r="P102" s="10">
+      <c r="Q102" s="10">
         <f t="shared" si="2"/>
         <v>4.4458999999999946</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43340</v>
       </c>
       <c r="B103" s="2">
         <v>6</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" t="s">
         <v>58</v>
       </c>
-      <c r="D103">
-        <v>4</v>
-      </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="6">
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G103" s="6">
+      <c r="H103" s="6">
         <v>0</v>
       </c>
-      <c r="J103" s="10">
+      <c r="K103" s="10">
         <v>3.7869000000000002</v>
       </c>
-      <c r="K103" s="9">
+      <c r="L103" s="9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N103" s="10">
+      <c r="O103" s="10">
         <v>4.9052999999999969</v>
       </c>
-      <c r="O103" s="10">
+      <c r="P103" s="10">
         <v>0.41339999999999577</v>
       </c>
-      <c r="P103" s="10">
+      <c r="Q103" s="10">
         <f t="shared" si="2"/>
         <v>4.4919000000000011</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43340</v>
       </c>
       <c r="B104" s="2">
         <v>7</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2"/>
+      <c r="D104" t="s">
         <v>58</v>
       </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="6">
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G104" s="6">
+      <c r="H104" s="6">
         <v>0</v>
       </c>
-      <c r="J104" s="10">
+      <c r="K104" s="10">
         <v>3.7909000000000002</v>
       </c>
-      <c r="K104" s="9">
+      <c r="L104" s="9">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M104" s="9">
+      <c r="N104" s="9">
         <v>0.873</v>
       </c>
-      <c r="N104" s="10">
+      <c r="O104" s="10">
         <v>4.9136000000000024</v>
       </c>
-      <c r="O104" s="10">
+      <c r="P104" s="10">
         <v>0.44519999999999982</v>
       </c>
-      <c r="P104" s="10">
+      <c r="Q104" s="10">
         <f t="shared" si="2"/>
         <v>4.4684000000000026</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43342</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2"/>
+      <c r="D105" t="s">
         <v>52</v>
       </c>
-      <c r="D105">
-        <v>4</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" s="6">
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="6">
         <v>0.435</v>
       </c>
-      <c r="G105" s="6">
+      <c r="H105" s="6">
         <v>180</v>
       </c>
-      <c r="J105" s="10">
+      <c r="K105" s="10">
         <v>3.6320000000000001</v>
       </c>
-      <c r="K105" s="9">
+      <c r="L105" s="9">
         <v>0</v>
       </c>
-      <c r="M105" s="9">
+      <c r="N105" s="9">
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43342</v>
       </c>
       <c r="B106" s="2">
         <v>2</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2"/>
+      <c r="D106" t="s">
         <v>52</v>
       </c>
-      <c r="D106">
-        <v>4</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="6">
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="6">
         <v>0.46</v>
       </c>
-      <c r="G106" s="6">
+      <c r="H106" s="6">
         <v>180</v>
       </c>
-      <c r="J106" s="10">
+      <c r="K106" s="10">
         <v>3.7984</v>
       </c>
-      <c r="K106" s="9">
+      <c r="L106" s="9">
         <v>1E-3</v>
       </c>
-      <c r="M106" s="9">
+      <c r="N106" s="9">
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43342</v>
       </c>
       <c r="B107" s="2">
         <v>3</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" t="s">
         <v>52</v>
       </c>
-      <c r="D107">
-        <v>4</v>
-      </c>
-      <c r="E107" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="6">
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="6">
         <v>0.51500000000000001</v>
       </c>
-      <c r="G107" s="6">
+      <c r="H107" s="6">
         <v>180</v>
       </c>
-      <c r="J107" s="10">
+      <c r="K107" s="10">
         <v>3.8496999999999999</v>
       </c>
-      <c r="K107" s="9">
+      <c r="L107" s="9">
         <v>0.04</v>
       </c>
-      <c r="M107" s="9">
+      <c r="N107" s="9">
         <v>0.84</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43342</v>
       </c>
       <c r="B108" s="2">
         <v>4</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2"/>
+      <c r="D108" t="s">
         <v>52</v>
       </c>
-      <c r="D108">
-        <v>4</v>
-      </c>
-      <c r="E108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="6">
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="6">
         <v>0.51</v>
       </c>
-      <c r="G108" s="6">
+      <c r="H108" s="6">
         <v>180</v>
       </c>
-      <c r="J108" s="10">
+      <c r="K108" s="10">
         <v>3.8971</v>
       </c>
-      <c r="K108" s="9">
+      <c r="L108" s="9">
         <v>0.03</v>
       </c>
-      <c r="M108" s="9">
+      <c r="N108" s="9">
         <v>0.82</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43342</v>
       </c>
       <c r="B109" s="2">
         <v>5</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2"/>
+      <c r="D109" t="s">
         <v>52</v>
       </c>
-      <c r="D109">
-        <v>4</v>
-      </c>
-      <c r="E109" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="6">
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="6">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G109" s="6">
+      <c r="H109" s="6">
         <v>180</v>
       </c>
-      <c r="J109" s="10">
+      <c r="K109" s="10">
         <v>3.7071999999999998</v>
       </c>
-      <c r="K109" s="9">
+      <c r="L109" s="9">
         <v>0.08</v>
       </c>
-      <c r="M109" s="9">
+      <c r="N109" s="9">
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43342</v>
       </c>
       <c r="B110" s="2">
         <v>6</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2"/>
+      <c r="D110" t="s">
         <v>52</v>
       </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="6">
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="6">
         <v>0.56499999999999995</v>
       </c>
-      <c r="G110" s="6">
+      <c r="H110" s="6">
         <v>180</v>
       </c>
-      <c r="J110" s="10">
+      <c r="K110" s="10">
         <v>3.7016</v>
       </c>
-      <c r="K110" s="9">
+      <c r="L110" s="9">
         <v>0.11</v>
       </c>
-      <c r="M110" s="9">
+      <c r="N110" s="9">
         <v>0.83</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43349</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2"/>
+      <c r="D111" t="s">
         <v>53</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>3</v>
       </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="6">
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="6">
         <v>0.51</v>
       </c>
-      <c r="G111" s="6">
+      <c r="H111" s="6">
         <v>180</v>
       </c>
-      <c r="J111" s="10">
+      <c r="K111" s="10">
         <v>3.4832000000000001</v>
       </c>
-      <c r="K111" s="9">
+      <c r="L111" s="9">
         <v>0.1</v>
       </c>
-      <c r="L111" s="9">
+      <c r="M111" s="9">
         <v>0.86</v>
       </c>
-      <c r="M111" s="9">
+      <c r="N111" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43349</v>
       </c>
       <c r="B112" s="2">
         <v>2</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2"/>
+      <c r="D112" t="s">
         <v>53</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>3</v>
       </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="6">
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="6">
         <v>0.51</v>
       </c>
-      <c r="G112" s="6">
+      <c r="H112" s="6">
         <v>180</v>
       </c>
-      <c r="J112" s="10">
+      <c r="K112" s="10">
         <v>3.6598999999999999</v>
       </c>
-      <c r="K112" s="9">
+      <c r="L112" s="9">
         <v>0.08</v>
       </c>
-      <c r="L112" s="9">
+      <c r="M112" s="9">
         <v>0.86499999999999999</v>
       </c>
-      <c r="M112" s="9">
+      <c r="N112" s="9">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43349</v>
       </c>
       <c r="B113" s="2">
         <v>3</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2"/>
+      <c r="D113" t="s">
         <v>53</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>3</v>
       </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="6">
+      <c r="F113" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="6">
         <v>0.51</v>
       </c>
-      <c r="G113" s="6">
+      <c r="H113" s="6">
         <v>180</v>
       </c>
-      <c r="J113" s="10">
+      <c r="K113" s="10">
         <v>3.4424999999999999</v>
       </c>
-      <c r="K113" s="9">
+      <c r="L113" s="9">
         <v>0.09</v>
       </c>
-      <c r="L113" s="9">
+      <c r="M113" s="9">
         <v>0.84499999999999997</v>
       </c>
-      <c r="M113" s="9">
+      <c r="N113" s="9">
         <v>0.78</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43349</v>
       </c>
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2"/>
+      <c r="D114" t="s">
         <v>53</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>3</v>
       </c>
-      <c r="E114" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="6">
+      <c r="F114" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="6">
         <v>0.51</v>
       </c>
-      <c r="G114" s="6">
+      <c r="H114" s="6">
         <v>180</v>
       </c>
-      <c r="J114" s="10">
+      <c r="K114" s="10">
         <v>3.5476000000000001</v>
       </c>
-      <c r="K114" s="9">
+      <c r="L114" s="9">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L114" s="9">
+      <c r="M114" s="13">
         <v>0.85</v>
       </c>
-      <c r="M114" s="9">
+      <c r="N114" s="13">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115" t="s">
+        <v>62</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>49</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K115" s="10">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="L115" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>49</v>
+      </c>
+      <c r="G116" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K116" s="10">
+        <v>3.9782000000000002</v>
+      </c>
+      <c r="L116" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B117" s="2">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" t="s">
+        <v>62</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K117" s="10">
+        <v>3.9954000000000001</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B118" s="2">
+        <v>4</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D118" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>49</v>
+      </c>
+      <c r="G118" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K118" s="10">
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="L118" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K119" s="10">
+        <v>3.9878</v>
+      </c>
+      <c r="L119" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B120" s="2">
+        <v>6</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>49</v>
+      </c>
+      <c r="G120" s="6">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="K120" s="10">
+        <v>3.915</v>
+      </c>
+      <c r="L120" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D121" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>49</v>
+      </c>
+      <c r="G121" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K121" s="10">
+        <v>3.7787999999999999</v>
+      </c>
+      <c r="L121" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B122" s="2">
+        <v>3</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>49</v>
+      </c>
+      <c r="G122" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K122" s="10">
+        <v>4.0202</v>
+      </c>
+      <c r="L122" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B123" s="2">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>49</v>
+      </c>
+      <c r="G123" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K123" s="10">
+        <v>4.0479000000000003</v>
+      </c>
+      <c r="L123" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B124" s="2">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D124" t="s">
+        <v>63</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>49</v>
+      </c>
+      <c r="G124" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K124" s="10">
+        <v>4.0848000000000004</v>
+      </c>
+      <c r="L124" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B125" s="2">
+        <v>6</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D125" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>49</v>
+      </c>
+      <c r="G125" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K125" s="10">
+        <v>4.0335000000000001</v>
+      </c>
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K126" s="10">
+        <f>10.2453-6.0653</f>
+        <v>4.1800000000000006</v>
+      </c>
+      <c r="L126" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" t="s">
+        <v>68</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K127" s="10">
+        <f>10.2162-6.1252</f>
+        <v>4.0910000000000002</v>
+      </c>
+      <c r="L127" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B128" s="2">
+        <v>3</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D128" t="s">
+        <v>58</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>49</v>
+      </c>
+      <c r="G128" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K128" s="10">
+        <f>10.2255-6.08</f>
+        <v>4.1455000000000002</v>
+      </c>
+      <c r="L128" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B129" s="2">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>49</v>
+      </c>
+      <c r="G129" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K129" s="10">
+        <f>9.8478-6.0909</f>
+        <v>3.756899999999999</v>
+      </c>
+      <c r="L129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B130" s="2">
+        <v>5</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D130" t="s">
+        <v>68</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>49</v>
+      </c>
+      <c r="G130" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K130" s="10">
+        <f>10.0103-5.9315</f>
+        <v>4.0788000000000011</v>
+      </c>
+      <c r="L130" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B131" s="2">
+        <v>6</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D131" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>49</v>
+      </c>
+      <c r="G131" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="K131" s="10">
+        <f>10.37-6.0706</f>
+        <v>4.2993999999999994</v>
+      </c>
+      <c r="L131" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>49</v>
+      </c>
+      <c r="G132" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="K132" s="10">
+        <f>10.042-6.0564</f>
+        <v>3.9855999999999998</v>
+      </c>
+      <c r="L132" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>49</v>
+      </c>
+      <c r="G133" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="K133" s="10">
+        <f>9.8601-6.0358</f>
+        <v>3.8242999999999991</v>
+      </c>
+      <c r="L133" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B134" s="2">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D134" t="s">
+        <v>68</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>49</v>
+      </c>
+      <c r="G134" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="K134" s="10">
+        <f>10.3403-6.0875</f>
+        <v>4.2527999999999988</v>
+      </c>
+      <c r="L134" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B135" s="2">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G135" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="K135" s="10">
+        <f>9.87-6.0185</f>
+        <v>3.8514999999999988</v>
+      </c>
+      <c r="L135" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B136" s="2">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>49</v>
+      </c>
+      <c r="G136" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="K136" s="10">
+        <f>9.7643-6.1272</f>
+        <v>3.6371000000000002</v>
+      </c>
+      <c r="L136" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B137" s="2">
+        <v>6</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D137" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137" t="s">
+        <v>49</v>
+      </c>
+      <c r="G137" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="K137" s="10">
+        <f>10.2479-6.1058</f>
+        <v>4.1420999999999992</v>
+      </c>
+      <c r="L137" s="9">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6869,7 +7726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -6877,12 +7734,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6929,7 +7786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43249</v>
       </c>
@@ -6972,7 +7829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43249</v>
       </c>
@@ -6999,7 +7856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43249</v>
       </c>
@@ -7027,7 +7884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43249</v>
       </c>
@@ -7055,7 +7912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43249</v>
       </c>

--- a/Data-analysis/Spinning.xlsx
+++ b/Data-analysis/Spinning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8441C-74FE-46FC-96FF-A3F989A3C9E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09AF328-F27E-4B6F-996E-8324D07B9E9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="75">
   <si>
     <t>Disk</t>
   </si>
@@ -359,9 +359,6 @@
     <t>20.05_8x3long_glossy_4mL</t>
   </si>
   <si>
-    <t>Moat</t>
-  </si>
-  <si>
     <t>Donor</t>
   </si>
   <si>
@@ -372,6 +369,27 @@
   </si>
   <si>
     <t>20.05_8x3long_0.75x9mm_glossy</t>
+  </si>
+  <si>
+    <t>Moat_glossy</t>
+  </si>
+  <si>
+    <t>control-5</t>
+  </si>
+  <si>
+    <t>control-4</t>
+  </si>
+  <si>
+    <t>control-3</t>
+  </si>
+  <si>
+    <t>spin-3</t>
+  </si>
+  <si>
+    <t>spin-4</t>
+  </si>
+  <si>
+    <t>spin-5</t>
   </si>
 </sst>
 </file>
@@ -439,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -454,6 +472,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3180,11 +3204,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:S137"/>
+  <dimension ref="A1:AD137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K137" sqref="K137"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA129" sqref="AA129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3200,10 +3224,10 @@
     <col min="12" max="12" width="8.88671875" style="9"/>
     <col min="13" max="14" width="9.109375" style="9"/>
     <col min="15" max="16" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3211,7 +3235,7 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3255,8 +3279,26 @@
       <c r="Q1" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43242</v>
       </c>
@@ -3307,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43242</v>
       </c>
@@ -3333,7 +3375,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43242</v>
       </c>
@@ -3359,7 +3401,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43242</v>
       </c>
@@ -3385,7 +3427,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43242</v>
       </c>
@@ -3411,7 +3453,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43242</v>
       </c>
@@ -3437,7 +3479,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43258</v>
       </c>
@@ -3477,7 +3519,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43258</v>
       </c>
@@ -3516,7 +3558,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43258</v>
       </c>
@@ -3555,7 +3597,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43258</v>
       </c>
@@ -3594,7 +3636,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43258</v>
       </c>
@@ -3633,7 +3675,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43258</v>
       </c>
@@ -3672,7 +3714,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43258</v>
       </c>
@@ -3711,7 +3753,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43258</v>
       </c>
@@ -3750,7 +3792,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43264</v>
       </c>
@@ -6968,7 +7010,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43349</v>
       </c>
@@ -7004,7 +7046,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43349</v>
       </c>
@@ -7040,7 +7082,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>43564</v>
       </c>
@@ -7048,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D115" t="s">
         <v>62</v>
@@ -7069,7 +7111,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>43564</v>
       </c>
@@ -7077,7 +7119,7 @@
         <v>2</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D116" t="s">
         <v>63</v>
@@ -7098,7 +7140,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>43564</v>
       </c>
@@ -7106,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D117" t="s">
         <v>62</v>
@@ -7127,7 +7169,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>43564</v>
       </c>
@@ -7135,7 +7177,7 @@
         <v>4</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D118" t="s">
         <v>63</v>
@@ -7156,7 +7198,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>43564</v>
       </c>
@@ -7164,7 +7206,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D119" t="s">
         <v>62</v>
@@ -7185,7 +7227,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>43564</v>
       </c>
@@ -7193,7 +7235,7 @@
         <v>6</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D120" t="s">
         <v>63</v>
@@ -7214,7 +7256,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>43564</v>
       </c>
@@ -7222,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D121" t="s">
         <v>62</v>
@@ -7243,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>43564</v>
       </c>
@@ -7251,7 +7293,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D122" t="s">
         <v>63</v>
@@ -7272,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>43564</v>
       </c>
@@ -7280,7 +7322,7 @@
         <v>4</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D123" t="s">
         <v>62</v>
@@ -7301,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>43564</v>
       </c>
@@ -7309,7 +7351,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D124" t="s">
         <v>63</v>
@@ -7330,36 +7372,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+    <row r="125" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="14">
         <v>43564</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="15">
         <v>6</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C125" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D125" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E125">
-        <v>4</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="E125" s="16">
+        <v>4</v>
+      </c>
+      <c r="F125" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G125" s="17">
         <v>0.4</v>
       </c>
-      <c r="K125" s="10">
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="18">
         <v>4.0335000000000001</v>
       </c>
-      <c r="L125" s="9">
+      <c r="L125" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="R125" s="18"/>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>43571</v>
       </c>
@@ -7367,10 +7417,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -7381,6 +7431,7 @@
       <c r="G126" s="6">
         <v>0.4</v>
       </c>
+      <c r="H126" s="10"/>
       <c r="K126" s="10">
         <f>10.2453-6.0653</f>
         <v>4.1800000000000006</v>
@@ -7388,8 +7439,51 @@
       <c r="L126" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S126">
+        <v>239</v>
+      </c>
+      <c r="T126">
+        <v>25</v>
+      </c>
+      <c r="U126">
+        <v>411</v>
+      </c>
+      <c r="V126">
+        <v>48</v>
+      </c>
+      <c r="W126">
+        <v>7</v>
+      </c>
+      <c r="X126" s="19">
+        <f>R126/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y126" s="19">
+        <f>S126/50*1000*10^4</f>
+        <v>47800000</v>
+      </c>
+      <c r="Z126" s="19">
+        <f>T126/50*1000*10^5</f>
+        <v>50000000</v>
+      </c>
+      <c r="AA126" s="19">
+        <f>U126/50*1000*10^3</f>
+        <v>8220000</v>
+      </c>
+      <c r="AB126" s="19">
+        <f>V126/50*1000*10^4</f>
+        <v>9600000</v>
+      </c>
+      <c r="AC126" s="19">
+        <f>W126/50*1000*10^5</f>
+        <v>14000000</v>
+      </c>
+      <c r="AD126" s="19">
+        <f>AA126*K126/(Y126*7)</f>
+        <v>0.10268858338314407</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>43571</v>
       </c>
@@ -7397,10 +7491,10 @@
         <v>2</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -7411,6 +7505,7 @@
       <c r="G127" s="6">
         <v>0.4</v>
       </c>
+      <c r="H127" s="10"/>
       <c r="K127" s="10">
         <f>10.2162-6.1252</f>
         <v>4.0910000000000002</v>
@@ -7418,8 +7513,51 @@
       <c r="L127" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S127">
+        <v>206</v>
+      </c>
+      <c r="T127">
+        <v>33</v>
+      </c>
+      <c r="U127">
+        <v>490</v>
+      </c>
+      <c r="V127">
+        <v>74</v>
+      </c>
+      <c r="W127">
+        <v>4</v>
+      </c>
+      <c r="X127" s="19">
+        <f>R127/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y127" s="19">
+        <f t="shared" ref="Y126:Y128" si="3">S127/50*1000*10^4</f>
+        <v>41200000</v>
+      </c>
+      <c r="Z127" s="19">
+        <f>T127/50*1000*10^5</f>
+        <v>66000000</v>
+      </c>
+      <c r="AA127" s="19">
+        <f>U127/50*1000*10^3</f>
+        <v>9800000</v>
+      </c>
+      <c r="AB127" s="19">
+        <f>V127/50*1000*10^4</f>
+        <v>14800000</v>
+      </c>
+      <c r="AC127" s="19">
+        <f>W127/50*1000*10^5</f>
+        <v>8000000</v>
+      </c>
+      <c r="AD127" s="19">
+        <f t="shared" ref="AD127:AD137" si="4">AA127*K127/(Y127*7)</f>
+        <v>0.13901456310679611</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>43571</v>
       </c>
@@ -7427,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D128" t="s">
         <v>58</v>
@@ -7441,6 +7579,7 @@
       <c r="G128" s="6">
         <v>0.4</v>
       </c>
+      <c r="H128" s="10"/>
       <c r="K128" s="10">
         <f>10.2255-6.08</f>
         <v>4.1455000000000002</v>
@@ -7448,8 +7587,51 @@
       <c r="L128" s="9">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S128">
+        <v>276</v>
+      </c>
+      <c r="T128">
+        <v>29</v>
+      </c>
+      <c r="U128">
+        <v>486</v>
+      </c>
+      <c r="V128">
+        <v>87</v>
+      </c>
+      <c r="W128">
+        <v>6</v>
+      </c>
+      <c r="X128" s="19">
+        <f>R128/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y128" s="19">
+        <f t="shared" si="3"/>
+        <v>55200000</v>
+      </c>
+      <c r="Z128" s="19">
+        <f>T128/50*1000*10^5</f>
+        <v>58000000</v>
+      </c>
+      <c r="AA128" s="19">
+        <f>U128/50*1000*10^3</f>
+        <v>9720000</v>
+      </c>
+      <c r="AB128" s="19">
+        <f>V128/50*1000*10^4</f>
+        <v>17400000</v>
+      </c>
+      <c r="AC128" s="19">
+        <f>W128/50*1000*10^5</f>
+        <v>12000000</v>
+      </c>
+      <c r="AD128" s="19">
+        <f t="shared" si="4"/>
+        <v>0.10428121118012422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>43571</v>
       </c>
@@ -7457,10 +7639,10 @@
         <v>4</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -7471,6 +7653,7 @@
       <c r="G129" s="6">
         <v>0.4</v>
       </c>
+      <c r="H129" s="10"/>
       <c r="K129" s="10">
         <f>9.8478-6.0909</f>
         <v>3.756899999999999</v>
@@ -7478,8 +7661,51 @@
       <c r="L129" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="S129">
+        <v>229</v>
+      </c>
+      <c r="T129">
+        <v>26</v>
+      </c>
+      <c r="U129">
+        <v>496</v>
+      </c>
+      <c r="V129">
+        <v>67</v>
+      </c>
+      <c r="W129">
+        <v>6</v>
+      </c>
+      <c r="X129" s="19">
+        <f>R129/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y129" s="19">
+        <f>S129/50*1000*10^4</f>
+        <v>45800000</v>
+      </c>
+      <c r="Z129" s="19">
+        <f>T129/50*1000*10^5</f>
+        <v>52000000</v>
+      </c>
+      <c r="AA129" s="19">
+        <f>U129/50*1000*10^3</f>
+        <v>9920000</v>
+      </c>
+      <c r="AB129" s="19">
+        <f>V129/50*1000*10^4</f>
+        <v>13400000</v>
+      </c>
+      <c r="AC129" s="19">
+        <f>W129/50*1000*10^5</f>
+        <v>12000000</v>
+      </c>
+      <c r="AD129" s="19">
+        <f t="shared" si="4"/>
+        <v>0.11624593886462879</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>43571</v>
       </c>
@@ -7487,10 +7713,10 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -7501,6 +7727,7 @@
       <c r="G130" s="6">
         <v>0.4</v>
       </c>
+      <c r="H130" s="10"/>
       <c r="K130" s="10">
         <f>10.0103-5.9315</f>
         <v>4.0788000000000011</v>
@@ -7508,8 +7735,54 @@
       <c r="L130" s="9">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="R130" s="10">
+        <v>774</v>
+      </c>
+      <c r="S130">
+        <v>222</v>
+      </c>
+      <c r="T130">
+        <v>31</v>
+      </c>
+      <c r="U130">
+        <v>489</v>
+      </c>
+      <c r="V130">
+        <v>66</v>
+      </c>
+      <c r="W130">
+        <v>9</v>
+      </c>
+      <c r="X130" s="19">
+        <f>R130/50*1000*10^3</f>
+        <v>15480000</v>
+      </c>
+      <c r="Y130" s="19">
+        <f>S130/50*1000*10^4</f>
+        <v>44400000</v>
+      </c>
+      <c r="Z130" s="19">
+        <f>T130/50*1000*10^5</f>
+        <v>62000000</v>
+      </c>
+      <c r="AA130" s="19">
+        <f>U130/50*1000*10^3</f>
+        <v>9780000</v>
+      </c>
+      <c r="AB130" s="19">
+        <f>V130/50*1000*10^4</f>
+        <v>13200000</v>
+      </c>
+      <c r="AC130" s="19">
+        <f>W130/50*1000*10^5</f>
+        <v>18000000</v>
+      </c>
+      <c r="AD130" s="19">
+        <f t="shared" si="4"/>
+        <v>0.12834833976833979</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>43571</v>
       </c>
@@ -7517,7 +7790,7 @@
         <v>6</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D131" t="s">
         <v>58</v>
@@ -7531,6 +7804,7 @@
       <c r="G131" s="6">
         <v>0.4</v>
       </c>
+      <c r="H131" s="10"/>
       <c r="K131" s="10">
         <f>10.37-6.0706</f>
         <v>4.2993999999999994</v>
@@ -7538,8 +7812,54 @@
       <c r="L131" s="9">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="R131" s="10">
+        <v>750</v>
+      </c>
+      <c r="S131">
+        <v>198</v>
+      </c>
+      <c r="T131">
+        <v>18</v>
+      </c>
+      <c r="U131">
+        <v>429</v>
+      </c>
+      <c r="V131">
+        <v>72</v>
+      </c>
+      <c r="W131">
+        <v>5</v>
+      </c>
+      <c r="X131" s="19">
+        <f>R131/50*1000*10^3</f>
+        <v>15000000</v>
+      </c>
+      <c r="Y131" s="19">
+        <f>S131/50*1000*10^4</f>
+        <v>39600000</v>
+      </c>
+      <c r="Z131" s="19">
+        <f>T131/50*1000*10^5</f>
+        <v>36000000</v>
+      </c>
+      <c r="AA131" s="19">
+        <f>U131/50*1000*10^3</f>
+        <v>8580000</v>
+      </c>
+      <c r="AB131" s="19">
+        <f>V131/50*1000*10^4</f>
+        <v>14400000</v>
+      </c>
+      <c r="AC131" s="19">
+        <f>W131/50*1000*10^5</f>
+        <v>10000000</v>
+      </c>
+      <c r="AD131" s="19">
+        <f t="shared" si="4"/>
+        <v>0.13307666666666665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>43571</v>
       </c>
@@ -7547,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D132" t="s">
         <v>58</v>
@@ -7561,6 +7881,7 @@
       <c r="G132" s="6">
         <v>0.45</v>
       </c>
+      <c r="H132" s="10"/>
       <c r="K132" s="10">
         <f>10.042-6.0564</f>
         <v>3.9855999999999998</v>
@@ -7568,8 +7889,45 @@
       <c r="L132" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U132">
+        <v>392</v>
+      </c>
+      <c r="V132">
+        <v>42</v>
+      </c>
+      <c r="W132">
+        <v>4</v>
+      </c>
+      <c r="X132" s="19">
+        <f>R132/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y132" s="19">
+        <f>S132/50*1000*10^4</f>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="19">
+        <f>T132/50*1000*10^5</f>
+        <v>0</v>
+      </c>
+      <c r="AA132" s="19">
+        <f>U132/50*1000*10^3</f>
+        <v>7840000</v>
+      </c>
+      <c r="AB132" s="19">
+        <f>V132/50*1000*10^4</f>
+        <v>8400000</v>
+      </c>
+      <c r="AC132" s="19">
+        <f>W132/50*1000*10^5</f>
+        <v>8000000</v>
+      </c>
+      <c r="AD132" s="19" t="e">
+        <f>AA132*K132/(Y132*7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>43571</v>
       </c>
@@ -7577,10 +7935,10 @@
         <v>2</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D133" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E133">
         <v>4</v>
@@ -7591,6 +7949,7 @@
       <c r="G133" s="6">
         <v>0.45</v>
       </c>
+      <c r="H133" s="10"/>
       <c r="K133" s="10">
         <f>9.8601-6.0358</f>
         <v>3.8242999999999991</v>
@@ -7598,8 +7957,45 @@
       <c r="L133" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U133">
+        <v>421</v>
+      </c>
+      <c r="V133">
+        <v>56</v>
+      </c>
+      <c r="W133">
+        <v>3</v>
+      </c>
+      <c r="X133" s="19">
+        <f>R133/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y133" s="19">
+        <f>S133/50*1000*10^4</f>
+        <v>0</v>
+      </c>
+      <c r="Z133" s="19">
+        <f>T133/50*1000*10^5</f>
+        <v>0</v>
+      </c>
+      <c r="AA133" s="19">
+        <f>U133/50*1000*10^3</f>
+        <v>8420000</v>
+      </c>
+      <c r="AB133" s="19">
+        <f>V133/50*1000*10^4</f>
+        <v>11200000</v>
+      </c>
+      <c r="AC133" s="19">
+        <f>W133/50*1000*10^5</f>
+        <v>6000000</v>
+      </c>
+      <c r="AD133" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>43571</v>
       </c>
@@ -7607,10 +8003,10 @@
         <v>3</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134" t="s">
         <v>67</v>
-      </c>
-      <c r="D134" t="s">
-        <v>68</v>
       </c>
       <c r="E134">
         <v>4</v>
@@ -7621,6 +8017,7 @@
       <c r="G134" s="6">
         <v>0.45</v>
       </c>
+      <c r="H134" s="10"/>
       <c r="K134" s="10">
         <f>10.3403-6.0875</f>
         <v>4.2527999999999988</v>
@@ -7628,8 +8025,45 @@
       <c r="L134" s="9">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U134">
+        <v>466</v>
+      </c>
+      <c r="V134">
+        <v>77</v>
+      </c>
+      <c r="W134">
+        <v>7</v>
+      </c>
+      <c r="X134" s="19">
+        <f>R134/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y134" s="19">
+        <f>S134/50*1000*10^4</f>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="19">
+        <f>T134/50*1000*10^5</f>
+        <v>0</v>
+      </c>
+      <c r="AA134" s="19">
+        <f>U134/50*1000*10^3</f>
+        <v>9320000</v>
+      </c>
+      <c r="AB134" s="19">
+        <f>V134/50*1000*10^4</f>
+        <v>15400000</v>
+      </c>
+      <c r="AC134" s="19">
+        <f>W134/50*1000*10^5</f>
+        <v>14000000</v>
+      </c>
+      <c r="AD134" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>43571</v>
       </c>
@@ -7637,7 +8071,7 @@
         <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D135" t="s">
         <v>58</v>
@@ -7651,6 +8085,7 @@
       <c r="G135" s="6">
         <v>0.45</v>
       </c>
+      <c r="H135" s="10"/>
       <c r="K135" s="10">
         <f>9.87-6.0185</f>
         <v>3.8514999999999988</v>
@@ -7658,8 +8093,45 @@
       <c r="L135" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U135">
+        <v>417</v>
+      </c>
+      <c r="V135">
+        <v>76</v>
+      </c>
+      <c r="W135">
+        <v>7</v>
+      </c>
+      <c r="X135" s="19">
+        <f>R135/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y135" s="19">
+        <f>S135/50*1000*10^4</f>
+        <v>0</v>
+      </c>
+      <c r="Z135" s="19">
+        <f>T135/50*1000*10^5</f>
+        <v>0</v>
+      </c>
+      <c r="AA135" s="19">
+        <f>U135/50*1000*10^3</f>
+        <v>8340000</v>
+      </c>
+      <c r="AB135" s="19">
+        <f>V135/50*1000*10^4</f>
+        <v>15200000</v>
+      </c>
+      <c r="AC135" s="19">
+        <f>W135/50*1000*10^5</f>
+        <v>14000000</v>
+      </c>
+      <c r="AD135" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>43571</v>
       </c>
@@ -7667,10 +8139,10 @@
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D136" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -7681,6 +8153,7 @@
       <c r="G136" s="6">
         <v>0.45</v>
       </c>
+      <c r="H136" s="10"/>
       <c r="K136" s="10">
         <f>9.7643-6.1272</f>
         <v>3.6371000000000002</v>
@@ -7688,8 +8161,45 @@
       <c r="L136" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="U136">
+        <v>362</v>
+      </c>
+      <c r="V136">
+        <v>56</v>
+      </c>
+      <c r="W136">
+        <v>7</v>
+      </c>
+      <c r="X136" s="19">
+        <f>R136/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y136" s="19">
+        <f>S136/50*1000*10^4</f>
+        <v>0</v>
+      </c>
+      <c r="Z136" s="19">
+        <f>T136/50*1000*10^5</f>
+        <v>0</v>
+      </c>
+      <c r="AA136" s="19">
+        <f>U136/50*1000*10^3</f>
+        <v>7240000</v>
+      </c>
+      <c r="AB136" s="19">
+        <f>V136/50*1000*10^4</f>
+        <v>11200000</v>
+      </c>
+      <c r="AC136" s="19">
+        <f>W136/50*1000*10^5</f>
+        <v>14000000</v>
+      </c>
+      <c r="AD136" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>43571</v>
       </c>
@@ -7697,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D137" t="s">
         <v>67</v>
-      </c>
-      <c r="D137" t="s">
-        <v>68</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -7711,12 +8221,50 @@
       <c r="G137" s="6">
         <v>0.45</v>
       </c>
+      <c r="H137" s="10"/>
       <c r="K137" s="10">
         <f>10.2479-6.1058</f>
         <v>4.1420999999999992</v>
       </c>
       <c r="L137" s="9">
         <v>1E-3</v>
+      </c>
+      <c r="U137">
+        <v>404</v>
+      </c>
+      <c r="V137">
+        <v>60</v>
+      </c>
+      <c r="W137">
+        <v>5</v>
+      </c>
+      <c r="X137" s="19">
+        <f>R137/50*1000*10^3</f>
+        <v>0</v>
+      </c>
+      <c r="Y137" s="19">
+        <f>S137/50*1000*10^4</f>
+        <v>0</v>
+      </c>
+      <c r="Z137" s="19">
+        <f>T137/50*1000*10^5</f>
+        <v>0</v>
+      </c>
+      <c r="AA137" s="19">
+        <f>U137/50*1000*10^3</f>
+        <v>8080000</v>
+      </c>
+      <c r="AB137" s="19">
+        <f>V137/50*1000*10^4</f>
+        <v>12000000</v>
+      </c>
+      <c r="AC137" s="19">
+        <f>W137/50*1000*10^5</f>
+        <v>10000000</v>
+      </c>
+      <c r="AD137" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Data-analysis/Spinning.xlsx
+++ b/Data-analysis/Spinning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09AF328-F27E-4B6F-996E-8324D07B9E9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218B502-5D7D-49A9-A65F-E248D68764CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_page_wide" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="82">
   <si>
     <t>Disk</t>
   </si>
@@ -390,6 +390,27 @@
   </si>
   <si>
     <t>spin-5</t>
+  </si>
+  <si>
+    <t>bac_recovery</t>
+  </si>
+  <si>
+    <t>c_control-3</t>
+  </si>
+  <si>
+    <t>c_control-4</t>
+  </si>
+  <si>
+    <t>c_control-5</t>
+  </si>
+  <si>
+    <t>c_spin-3</t>
+  </si>
+  <si>
+    <t>c_spin-4</t>
+  </si>
+  <si>
+    <t>c_spin-5</t>
   </si>
 </sst>
 </file>
@@ -1687,15 +1708,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>188595</xdr:rowOff>
+      <xdr:colOff>596265</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>207945</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66886</xdr:rowOff>
+      <xdr:colOff>406065</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1724,8 +1745,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5274945" y="4189095"/>
-          <a:ext cx="3353100" cy="2545291"/>
+          <a:off x="6265545" y="3228975"/>
+          <a:ext cx="3467400" cy="2446231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,16 +1757,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>543233</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139373</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>541019</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>65123</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137159</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>179423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1774,8 +1795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5420033" y="6753225"/>
-          <a:ext cx="3541086" cy="3027398"/>
+          <a:off x="6418253" y="5869305"/>
+          <a:ext cx="3655386" cy="2905478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,7 +2168,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I8" sqref="I8:I15"/>
     </sheetView>
   </sheetViews>
@@ -3206,9 +3227,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA129" sqref="AA129"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z131" sqref="Z131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3225,9 +3246,10 @@
     <col min="13" max="14" width="9.109375" style="9"/>
     <col min="15" max="16" width="8.88671875" style="10"/>
     <col min="18" max="18" width="8.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3297,8 +3319,29 @@
       <c r="W1" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43242</v>
       </c>
@@ -3349,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43242</v>
       </c>
@@ -3375,7 +3418,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43242</v>
       </c>
@@ -3401,7 +3444,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43242</v>
       </c>
@@ -3427,7 +3470,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43242</v>
       </c>
@@ -3453,7 +3496,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43242</v>
       </c>
@@ -3479,7 +3522,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43258</v>
       </c>
@@ -3519,7 +3562,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43258</v>
       </c>
@@ -3558,7 +3601,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43258</v>
       </c>
@@ -3597,7 +3640,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43258</v>
       </c>
@@ -3636,7 +3679,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43258</v>
       </c>
@@ -3675,7 +3718,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43258</v>
       </c>
@@ -3714,7 +3757,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43258</v>
       </c>
@@ -3753,7 +3796,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43258</v>
       </c>
@@ -3792,7 +3835,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43264</v>
       </c>
@@ -7463,22 +7506,22 @@
         <v>47800000</v>
       </c>
       <c r="Z126" s="19">
-        <f>T126/50*1000*10^5</f>
+        <f t="shared" ref="Z126:Z137" si="3">T126/50*1000*10^5</f>
         <v>50000000</v>
       </c>
       <c r="AA126" s="19">
-        <f>U126/50*1000*10^3</f>
+        <f t="shared" ref="AA126:AA137" si="4">U126/50*1000*10^3</f>
         <v>8220000</v>
       </c>
       <c r="AB126" s="19">
-        <f>V126/50*1000*10^4</f>
+        <f t="shared" ref="AB126:AB137" si="5">V126/50*1000*10^4</f>
         <v>9600000</v>
       </c>
       <c r="AC126" s="19">
-        <f>W126/50*1000*10^5</f>
+        <f t="shared" ref="AC126:AC137" si="6">W126/50*1000*10^5</f>
         <v>14000000</v>
       </c>
-      <c r="AD126" s="19">
+      <c r="AD126" s="6">
         <f>AA126*K126/(Y126*7)</f>
         <v>0.10268858338314407</v>
       </c>
@@ -7529,31 +7572,31 @@
         <v>4</v>
       </c>
       <c r="X127" s="19">
-        <f>R127/50*1000*10^3</f>
+        <f t="shared" ref="X126:X137" si="7">R127/50*1000*10^3</f>
         <v>0</v>
       </c>
       <c r="Y127" s="19">
-        <f t="shared" ref="Y126:Y128" si="3">S127/50*1000*10^4</f>
+        <f t="shared" ref="Y127:Y128" si="8">S127/50*1000*10^4</f>
         <v>41200000</v>
       </c>
       <c r="Z127" s="19">
-        <f>T127/50*1000*10^5</f>
+        <f t="shared" si="3"/>
         <v>66000000</v>
       </c>
       <c r="AA127" s="19">
-        <f>U127/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>9800000</v>
       </c>
       <c r="AB127" s="19">
-        <f>V127/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>14800000</v>
       </c>
       <c r="AC127" s="19">
-        <f>W127/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>8000000</v>
       </c>
-      <c r="AD127" s="19">
-        <f t="shared" ref="AD127:AD137" si="4">AA127*K127/(Y127*7)</f>
+      <c r="AD127" s="6">
+        <f t="shared" ref="AD127:AD137" si="9">AA127*K127/(Y127*7)</f>
         <v>0.13901456310679611</v>
       </c>
     </row>
@@ -7603,31 +7646,31 @@
         <v>6</v>
       </c>
       <c r="X128" s="19">
-        <f>R128/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y128" s="19">
+        <f t="shared" si="8"/>
+        <v>55200000</v>
+      </c>
+      <c r="Z128" s="19">
         <f t="shared" si="3"/>
-        <v>55200000</v>
-      </c>
-      <c r="Z128" s="19">
-        <f>T128/50*1000*10^5</f>
         <v>58000000</v>
       </c>
       <c r="AA128" s="19">
-        <f>U128/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>9720000</v>
       </c>
       <c r="AB128" s="19">
-        <f>V128/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>17400000</v>
       </c>
       <c r="AC128" s="19">
-        <f>W128/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>12000000</v>
       </c>
-      <c r="AD128" s="19">
-        <f t="shared" si="4"/>
+      <c r="AD128" s="6">
+        <f t="shared" si="9"/>
         <v>0.10428121118012422</v>
       </c>
     </row>
@@ -7677,31 +7720,31 @@
         <v>6</v>
       </c>
       <c r="X129" s="19">
-        <f>R129/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y129" s="19">
-        <f>S129/50*1000*10^4</f>
+        <f t="shared" ref="Y129:Y137" si="10">S129/50*1000*10^4</f>
         <v>45800000</v>
       </c>
       <c r="Z129" s="19">
-        <f>T129/50*1000*10^5</f>
+        <f t="shared" si="3"/>
         <v>52000000</v>
       </c>
       <c r="AA129" s="19">
-        <f>U129/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>9920000</v>
       </c>
       <c r="AB129" s="19">
-        <f>V129/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>13400000</v>
       </c>
       <c r="AC129" s="19">
-        <f>W129/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>12000000</v>
       </c>
-      <c r="AD129" s="19">
-        <f t="shared" si="4"/>
+      <c r="AD129" s="6">
+        <f t="shared" si="9"/>
         <v>0.11624593886462879</v>
       </c>
     </row>
@@ -7754,31 +7797,31 @@
         <v>9</v>
       </c>
       <c r="X130" s="19">
-        <f>R130/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>15480000</v>
       </c>
       <c r="Y130" s="19">
-        <f>S130/50*1000*10^4</f>
+        <f t="shared" si="10"/>
         <v>44400000</v>
       </c>
       <c r="Z130" s="19">
-        <f>T130/50*1000*10^5</f>
+        <f t="shared" si="3"/>
         <v>62000000</v>
       </c>
       <c r="AA130" s="19">
-        <f>U130/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>9780000</v>
       </c>
       <c r="AB130" s="19">
-        <f>V130/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>13200000</v>
       </c>
       <c r="AC130" s="19">
-        <f>W130/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>18000000</v>
       </c>
-      <c r="AD130" s="19">
-        <f t="shared" si="4"/>
+      <c r="AD130" s="6">
+        <f t="shared" si="9"/>
         <v>0.12834833976833979</v>
       </c>
     </row>
@@ -7831,31 +7874,31 @@
         <v>5</v>
       </c>
       <c r="X131" s="19">
-        <f>R131/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>15000000</v>
       </c>
       <c r="Y131" s="19">
-        <f>S131/50*1000*10^4</f>
+        <f t="shared" si="10"/>
         <v>39600000</v>
       </c>
       <c r="Z131" s="19">
-        <f>T131/50*1000*10^5</f>
+        <f t="shared" si="3"/>
         <v>36000000</v>
       </c>
       <c r="AA131" s="19">
-        <f>U131/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>8580000</v>
       </c>
       <c r="AB131" s="19">
-        <f>V131/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>14400000</v>
       </c>
       <c r="AC131" s="19">
-        <f>W131/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
-      <c r="AD131" s="19">
-        <f t="shared" si="4"/>
+      <c r="AD131" s="6">
+        <f t="shared" si="9"/>
         <v>0.13307666666666665</v>
       </c>
     </row>
@@ -7889,6 +7932,12 @@
       <c r="L132" s="9">
         <v>0</v>
       </c>
+      <c r="S132">
+        <v>123</v>
+      </c>
+      <c r="T132">
+        <v>14</v>
+      </c>
       <c r="U132">
         <v>392</v>
       </c>
@@ -7899,32 +7948,32 @@
         <v>4</v>
       </c>
       <c r="X132" s="19">
-        <f>R132/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y132" s="19">
-        <f>S132/50*1000*10^4</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>24600000</v>
       </c>
       <c r="Z132" s="19">
-        <f>T132/50*1000*10^5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>28000000</v>
       </c>
       <c r="AA132" s="19">
         <f>U132/50*1000*10^3</f>
         <v>7840000</v>
       </c>
       <c r="AB132" s="19">
-        <f>V132/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>8400000</v>
       </c>
       <c r="AC132" s="19">
-        <f>W132/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>8000000</v>
       </c>
-      <c r="AD132" s="19" t="e">
+      <c r="AD132" s="6">
         <f>AA132*K132/(Y132*7)</f>
-        <v>#DIV/0!</v>
+        <v>0.18145821138211382</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.3">
@@ -7957,6 +8006,12 @@
       <c r="L133" s="9">
         <v>0</v>
       </c>
+      <c r="S133">
+        <v>67</v>
+      </c>
+      <c r="T133">
+        <v>4</v>
+      </c>
       <c r="U133">
         <v>421</v>
       </c>
@@ -7967,32 +8022,32 @@
         <v>3</v>
       </c>
       <c r="X133" s="19">
-        <f>R133/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y133" s="19">
-        <f>S133/50*1000*10^4</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>13400000</v>
       </c>
       <c r="Z133" s="19">
-        <f>T133/50*1000*10^5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8000000</v>
       </c>
       <c r="AA133" s="19">
-        <f>U133/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>8420000</v>
       </c>
       <c r="AB133" s="19">
-        <f>V133/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>11200000</v>
       </c>
       <c r="AC133" s="19">
-        <f>W133/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>6000000</v>
       </c>
-      <c r="AD133" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AD133" s="6">
+        <f>AA133*K133/(Y133*7)</f>
+        <v>0.34329004264392315</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.3">
@@ -8025,6 +8080,12 @@
       <c r="L134" s="9">
         <v>1E-3</v>
       </c>
+      <c r="S134">
+        <v>52</v>
+      </c>
+      <c r="T134">
+        <v>5</v>
+      </c>
       <c r="U134">
         <v>466</v>
       </c>
@@ -8035,32 +8096,32 @@
         <v>7</v>
       </c>
       <c r="X134" s="19">
-        <f>R134/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y134" s="19">
-        <f>S134/50*1000*10^4</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>10400000</v>
       </c>
       <c r="Z134" s="19">
-        <f>T134/50*1000*10^5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10000000</v>
       </c>
       <c r="AA134" s="19">
-        <f>U134/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>9320000</v>
       </c>
       <c r="AB134" s="19">
-        <f>V134/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>15400000</v>
       </c>
       <c r="AC134" s="19">
-        <f>W134/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>14000000</v>
       </c>
-      <c r="AD134" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AD134" s="6">
+        <f>AA134*K134/(Y134*7)</f>
+        <v>0.54445186813186808</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.3">
@@ -8093,6 +8154,12 @@
       <c r="L135" s="9">
         <v>0</v>
       </c>
+      <c r="S135">
+        <v>75</v>
+      </c>
+      <c r="T135">
+        <v>33</v>
+      </c>
       <c r="U135">
         <v>417</v>
       </c>
@@ -8103,32 +8170,32 @@
         <v>7</v>
       </c>
       <c r="X135" s="19">
-        <f>R135/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y135" s="19">
-        <f>S135/50*1000*10^4</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>15000000</v>
       </c>
       <c r="Z135" s="19">
-        <f>T135/50*1000*10^5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>66000000</v>
       </c>
       <c r="AA135" s="19">
-        <f>U135/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>8340000</v>
       </c>
       <c r="AB135" s="19">
-        <f>V135/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>15200000</v>
       </c>
       <c r="AC135" s="19">
-        <f>W135/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>14000000</v>
       </c>
-      <c r="AD135" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AD135" s="6">
+        <f t="shared" si="9"/>
+        <v>0.30591914285714278</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.3">
@@ -8161,6 +8228,12 @@
       <c r="L136" s="9">
         <v>0</v>
       </c>
+      <c r="S136">
+        <v>98</v>
+      </c>
+      <c r="T136">
+        <v>5</v>
+      </c>
       <c r="U136">
         <v>362</v>
       </c>
@@ -8171,32 +8244,32 @@
         <v>7</v>
       </c>
       <c r="X136" s="19">
-        <f>R136/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y136" s="19">
-        <f>S136/50*1000*10^4</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>19600000</v>
       </c>
       <c r="Z136" s="19">
-        <f>T136/50*1000*10^5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10000000</v>
       </c>
       <c r="AA136" s="19">
-        <f>U136/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>7240000</v>
       </c>
       <c r="AB136" s="19">
-        <f>V136/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>11200000</v>
       </c>
       <c r="AC136" s="19">
-        <f>W136/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>14000000</v>
       </c>
-      <c r="AD136" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AD136" s="6">
+        <f>AA136*K136/(Y136*7)</f>
+        <v>0.19192860058309039</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.3">
@@ -8229,6 +8302,12 @@
       <c r="L137" s="9">
         <v>1E-3</v>
       </c>
+      <c r="S137">
+        <v>89</v>
+      </c>
+      <c r="T137">
+        <v>8</v>
+      </c>
       <c r="U137">
         <v>404</v>
       </c>
@@ -8239,32 +8318,32 @@
         <v>5</v>
       </c>
       <c r="X137" s="19">
-        <f>R137/50*1000*10^3</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y137" s="19">
-        <f>S137/50*1000*10^4</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>17800000</v>
       </c>
       <c r="Z137" s="19">
-        <f>T137/50*1000*10^5</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>16000000</v>
       </c>
       <c r="AA137" s="19">
-        <f>U137/50*1000*10^3</f>
+        <f t="shared" si="4"/>
         <v>8080000</v>
       </c>
       <c r="AB137" s="19">
-        <f>V137/50*1000*10^4</f>
+        <f t="shared" si="5"/>
         <v>12000000</v>
       </c>
       <c r="AC137" s="19">
-        <f>W137/50*1000*10^5</f>
+        <f t="shared" si="6"/>
         <v>10000000</v>
       </c>
-      <c r="AD137" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="AD137" s="6">
+        <f t="shared" si="9"/>
+        <v>0.2686048796147672</v>
       </c>
     </row>
   </sheetData>

--- a/Data-analysis/Spinning.xlsx
+++ b/Data-analysis/Spinning.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218B502-5D7D-49A9-A65F-E248D68764CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22275" windowHeight="13170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main_page_wide" sheetId="1" r:id="rId1"/>
     <sheet name="Hematocrit" sheetId="3" r:id="rId2"/>
     <sheet name="Bad data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="O93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="P93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="Q93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,12 +130,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="85">
   <si>
     <t>Disk</t>
   </si>
@@ -412,11 +411,20 @@
   <si>
     <t>c_spin-5</t>
   </si>
+  <si>
+    <t>Moat2_glossy</t>
+  </si>
+  <si>
+    <t>20.05_8x3_1.25x7mm</t>
+  </si>
+  <si>
+    <t>20.05_8x3_1.25x9mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -517,7 +525,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -691,12 +699,15 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7BE-4BB3-83A6-8706B9602D6E}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredSeriesTitle>
                 <c15:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!#REF!</c15:sqref>
@@ -713,9 +724,6 @@
                 </c15:tx>
               </c15:filteredSeriesTitle>
             </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7BE-4BB3-83A6-8706B9602D6E}"/>
-            </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
@@ -726,11 +734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1453056192"/>
-        <c:axId val="-1453048032"/>
+        <c:axId val="1476999520"/>
+        <c:axId val="1477000608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1453056192"/>
+        <c:axId val="1476999520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,12 +850,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1453048032"/>
+        <c:crossAx val="1477000608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1453048032"/>
+        <c:axId val="1477000608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1453056192"/>
+        <c:crossAx val="1476999520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -973,14 +981,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1591,7 +1599,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFBBC99-885F-4EF6-B984-4882307E780A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBFBBC99-885F-4EF6-B984-4882307E780A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1643,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4346EC53-EF7D-4616-BDFA-5D8CA0D5F4BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4346EC53-EF7D-4616-BDFA-5D8CA0D5F4BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1687,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A121844-DCEF-493C-B950-93833269643C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A121844-DCEF-493C-B950-93833269643C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1731,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3493C57-AF06-4E58-AE0A-802C6FD0D299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3493C57-AF06-4E58-AE0A-802C6FD0D299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1781,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F423840-B72F-4217-9ED7-6AC9B7BDACE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6F423840-B72F-4217-9ED7-6AC9B7BDACE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1831,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7C2062-9BD2-442C-85A1-AC7A4EB0E37A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C7C2062-9BD2-442C-85A1-AC7A4EB0E37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,23 +1928,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1972,23 +1963,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2164,28 +2138,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I8" sqref="I8:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43242</v>
       </c>
@@ -2255,7 +2229,7 @@
         <v>4.0156999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43242</v>
       </c>
@@ -2275,7 +2249,7 @@
         <v>3.9187999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43242</v>
       </c>
@@ -2298,7 +2272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43242</v>
       </c>
@@ -2318,7 +2292,7 @@
         <v>4.8489000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43242</v>
       </c>
@@ -2338,7 +2312,7 @@
         <v>3.5714999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43242</v>
       </c>
@@ -2358,7 +2332,7 @@
         <v>4.0186999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43258</v>
       </c>
@@ -2407,7 +2381,7 @@
         <v>6.7259070000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43258</v>
       </c>
@@ -2455,7 +2429,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43258</v>
       </c>
@@ -2503,7 +2477,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43258</v>
       </c>
@@ -2551,7 +2525,7 @@
         <v>0.98429999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43258</v>
       </c>
@@ -2587,7 +2561,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43258</v>
       </c>
@@ -2623,7 +2597,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43258</v>
       </c>
@@ -2666,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43258</v>
       </c>
@@ -2703,7 +2677,7 @@
         <v>4.4399999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43264</v>
       </c>
@@ -2730,7 +2704,7 @@
         <v>3.1424000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43264</v>
       </c>
@@ -2757,7 +2731,7 @@
         <v>3.8690000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43264</v>
       </c>
@@ -2793,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43264</v>
       </c>
@@ -2836,7 +2810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43264</v>
       </c>
@@ -2880,7 +2854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43264</v>
       </c>
@@ -2923,7 +2897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="P22" s="2">
@@ -2936,7 +2910,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="P23" s="2">
@@ -2949,7 +2923,7 @@
         <v>49.23</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="P24" s="2">
@@ -2962,7 +2936,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="P25" s="2">
@@ -2975,7 +2949,7 @@
         <v>48.43</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="P26" s="2">
@@ -2988,7 +2962,7 @@
         <v>49.62</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="H27" s="4"/>
@@ -3002,7 +2976,7 @@
         <v>50.77</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="P28" s="2">
@@ -3015,7 +2989,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="P29" s="2">
@@ -3028,7 +3002,7 @@
         <v>46.04</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="P30" s="2">
@@ -3041,7 +3015,7 @@
         <v>49.23</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="P31" s="2">
@@ -3061,7 +3035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="P32" s="2">
@@ -3081,7 +3055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="P33" s="2">
@@ -3101,7 +3075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="P34" s="2">
@@ -3114,7 +3088,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="P35" s="2">
@@ -3127,7 +3101,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="P36" s="2">
@@ -3140,7 +3114,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="P37" s="2">
@@ -3153,7 +3127,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="P38" s="2">
@@ -3166,7 +3140,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="P39" s="2">
@@ -3179,7 +3153,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="P40" s="2">
@@ -3192,7 +3166,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="P41" s="2">
@@ -3205,7 +3179,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="P42" s="2">
         <v>6</v>
       </c>
@@ -3223,33 +3197,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AD137"/>
+  <dimension ref="A1:AD149"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z131" sqref="Z131"/>
+      <selection pane="bottomLeft" activeCell="K138" sqref="K138:K149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="10" width="8.88671875" style="6"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="12" width="8.88671875" style="9"/>
-    <col min="13" max="14" width="9.109375" style="9"/>
-    <col min="15" max="16" width="8.88671875" style="10"/>
-    <col min="18" max="18" width="8.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="10" width="8.85546875" style="6"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="12" max="12" width="8.85546875" style="9"/>
+    <col min="13" max="14" width="9.140625" style="9"/>
+    <col min="15" max="16" width="8.85546875" style="10"/>
+    <col min="18" max="18" width="8.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="24" max="29" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3341,7 +3315,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43242</v>
       </c>
@@ -3392,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43242</v>
       </c>
@@ -3418,7 +3392,7 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43242</v>
       </c>
@@ -3444,7 +3418,7 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43242</v>
       </c>
@@ -3470,7 +3444,7 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43242</v>
       </c>
@@ -3496,7 +3470,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43242</v>
       </c>
@@ -3522,7 +3496,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43258</v>
       </c>
@@ -3562,7 +3536,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43258</v>
       </c>
@@ -3601,7 +3575,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43258</v>
       </c>
@@ -3640,7 +3614,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43258</v>
       </c>
@@ -3679,7 +3653,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43258</v>
       </c>
@@ -3718,7 +3692,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43258</v>
       </c>
@@ -3757,7 +3731,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43258</v>
       </c>
@@ -3796,7 +3770,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43258</v>
       </c>
@@ -3835,7 +3809,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43264</v>
       </c>
@@ -3868,7 +3842,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43264</v>
       </c>
@@ -3901,7 +3875,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43264</v>
       </c>
@@ -3934,7 +3908,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43264</v>
       </c>
@@ -3967,7 +3941,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43264</v>
       </c>
@@ -4003,7 +3977,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43264</v>
       </c>
@@ -4036,7 +4010,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43293</v>
       </c>
@@ -4062,7 +4036,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43298</v>
       </c>
@@ -4092,7 +4066,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43298</v>
       </c>
@@ -4122,7 +4096,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43298</v>
       </c>
@@ -4152,7 +4126,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43298</v>
       </c>
@@ -4182,7 +4156,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43298</v>
       </c>
@@ -4213,7 +4187,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43298</v>
       </c>
@@ -4243,7 +4217,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43305</v>
       </c>
@@ -4273,7 +4247,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43305</v>
       </c>
@@ -4303,7 +4277,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43305</v>
       </c>
@@ -4337,7 +4311,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43305</v>
       </c>
@@ -4371,7 +4345,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43305</v>
       </c>
@@ -4401,7 +4375,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43305</v>
       </c>
@@ -4431,7 +4405,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43305</v>
       </c>
@@ -4461,7 +4435,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43305</v>
       </c>
@@ -4491,7 +4465,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43307</v>
       </c>
@@ -4522,7 +4496,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43307</v>
       </c>
@@ -4553,7 +4527,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43307</v>
       </c>
@@ -4584,7 +4558,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43307</v>
       </c>
@@ -4615,7 +4589,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43312</v>
       </c>
@@ -4645,7 +4619,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43312</v>
       </c>
@@ -4675,7 +4649,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43312</v>
       </c>
@@ -4705,7 +4679,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43312</v>
       </c>
@@ -4735,7 +4709,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43312</v>
       </c>
@@ -4765,7 +4739,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43312</v>
       </c>
@@ -4795,7 +4769,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43312</v>
       </c>
@@ -4825,7 +4799,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43314</v>
       </c>
@@ -4855,7 +4829,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43314</v>
       </c>
@@ -4885,7 +4859,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43314</v>
       </c>
@@ -4915,7 +4889,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43314</v>
       </c>
@@ -4945,7 +4919,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43314</v>
       </c>
@@ -4975,7 +4949,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43314</v>
       </c>
@@ -5005,7 +4979,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43314</v>
       </c>
@@ -5035,7 +5009,7 @@
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43314</v>
       </c>
@@ -5065,7 +5039,7 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43319</v>
       </c>
@@ -5095,7 +5069,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43319</v>
       </c>
@@ -5125,7 +5099,7 @@
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43319</v>
       </c>
@@ -5155,7 +5129,7 @@
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43319</v>
       </c>
@@ -5185,7 +5159,7 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43319</v>
       </c>
@@ -5215,7 +5189,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43319</v>
       </c>
@@ -5242,7 +5216,7 @@
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43321</v>
       </c>
@@ -5275,7 +5249,7 @@
       <c r="O62" s="9"/>
       <c r="P62" s="9"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43321</v>
       </c>
@@ -5308,7 +5282,7 @@
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43321</v>
       </c>
@@ -5341,7 +5315,7 @@
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43321</v>
       </c>
@@ -5374,7 +5348,7 @@
       <c r="O65" s="9"/>
       <c r="P65" s="9"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43321</v>
       </c>
@@ -5407,7 +5381,7 @@
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43321</v>
       </c>
@@ -5440,7 +5414,7 @@
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43321</v>
       </c>
@@ -5473,7 +5447,7 @@
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43326</v>
       </c>
@@ -5506,7 +5480,7 @@
       <c r="O69" s="9"/>
       <c r="P69" s="9"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43326</v>
       </c>
@@ -5539,7 +5513,7 @@
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43326</v>
       </c>
@@ -5572,7 +5546,7 @@
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43326</v>
       </c>
@@ -5605,7 +5579,7 @@
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43326</v>
       </c>
@@ -5639,7 +5613,7 @@
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43326</v>
       </c>
@@ -5669,7 +5643,7 @@
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43326</v>
       </c>
@@ -5702,7 +5676,7 @@
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43328</v>
       </c>
@@ -5735,7 +5709,7 @@
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43328</v>
       </c>
@@ -5768,7 +5742,7 @@
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43328</v>
       </c>
@@ -5801,7 +5775,7 @@
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43328</v>
       </c>
@@ -5834,7 +5808,7 @@
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43328</v>
       </c>
@@ -5867,7 +5841,7 @@
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43328</v>
       </c>
@@ -5900,7 +5874,7 @@
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43328</v>
       </c>
@@ -5933,7 +5907,7 @@
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43328</v>
       </c>
@@ -5966,7 +5940,7 @@
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43328</v>
       </c>
@@ -5999,7 +5973,7 @@
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43328</v>
       </c>
@@ -6029,7 +6003,7 @@
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43333</v>
       </c>
@@ -6069,7 +6043,7 @@
         <v>4.6127000000000038</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43333</v>
       </c>
@@ -6109,7 +6083,7 @@
         <v>4.5798000000000059</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43333</v>
       </c>
@@ -6149,7 +6123,7 @@
         <v>4.6700000000000017</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43333</v>
       </c>
@@ -6189,7 +6163,7 @@
         <v>4.7094000000000023</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43333</v>
       </c>
@@ -6229,7 +6203,7 @@
         <v>4.6321000000000083</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43333</v>
       </c>
@@ -6263,7 +6237,7 @@
       </c>
       <c r="Q91" s="10"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43334</v>
       </c>
@@ -6294,7 +6268,7 @@
       </c>
       <c r="Q92" s="10"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43334</v>
       </c>
@@ -6334,7 +6308,7 @@
         <v>4.4594999999999914</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43334</v>
       </c>
@@ -6374,7 +6348,7 @@
         <v>4.3830999999999989</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43334</v>
       </c>
@@ -6414,7 +6388,7 @@
         <v>4.4004999999999939</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43334</v>
       </c>
@@ -6454,7 +6428,7 @@
         <v>4.3624999999999972</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43334</v>
       </c>
@@ -6494,7 +6468,7 @@
         <v>4.3070999999999913</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43340</v>
       </c>
@@ -6537,7 +6511,7 @@
         <v>4.4329000000000036</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43340</v>
       </c>
@@ -6580,7 +6554,7 @@
         <v>4.3871999999999929</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43340</v>
       </c>
@@ -6623,7 +6597,7 @@
         <v>4.4403999999999968</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43340</v>
       </c>
@@ -6660,7 +6634,7 @@
       </c>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43340</v>
       </c>
@@ -6700,7 +6674,7 @@
         <v>4.4458999999999946</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43340</v>
       </c>
@@ -6740,7 +6714,7 @@
         <v>4.4919000000000011</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43340</v>
       </c>
@@ -6783,7 +6757,7 @@
         <v>4.4684000000000026</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43342</v>
       </c>
@@ -6816,7 +6790,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43342</v>
       </c>
@@ -6849,7 +6823,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43342</v>
       </c>
@@ -6882,7 +6856,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43342</v>
       </c>
@@ -6915,7 +6889,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43342</v>
       </c>
@@ -6948,7 +6922,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43342</v>
       </c>
@@ -6981,7 +6955,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43349</v>
       </c>
@@ -7017,7 +6991,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43349</v>
       </c>
@@ -7053,7 +7027,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43349</v>
       </c>
@@ -7089,7 +7063,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43349</v>
       </c>
@@ -7125,7 +7099,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43564</v>
       </c>
@@ -7154,7 +7128,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43564</v>
       </c>
@@ -7183,7 +7157,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43564</v>
       </c>
@@ -7212,7 +7186,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43564</v>
       </c>
@@ -7241,7 +7215,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43564</v>
       </c>
@@ -7270,7 +7244,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43564</v>
       </c>
@@ -7299,7 +7273,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43564</v>
       </c>
@@ -7328,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43564</v>
       </c>
@@ -7357,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43564</v>
       </c>
@@ -7386,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43564</v>
       </c>
@@ -7415,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>43564</v>
       </c>
@@ -7452,7 +7426,7 @@
       <c r="P125" s="18"/>
       <c r="R125" s="18"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43571</v>
       </c>
@@ -7526,7 +7500,7 @@
         <v>0.10268858338314407</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43571</v>
       </c>
@@ -7572,7 +7546,7 @@
         <v>4</v>
       </c>
       <c r="X127" s="19">
-        <f t="shared" ref="X126:X137" si="7">R127/50*1000*10^3</f>
+        <f t="shared" ref="X127:X137" si="7">R127/50*1000*10^3</f>
         <v>0</v>
       </c>
       <c r="Y127" s="19">
@@ -7600,7 +7574,7 @@
         <v>0.13901456310679611</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43571</v>
       </c>
@@ -7674,7 +7648,7 @@
         <v>0.10428121118012422</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43571</v>
       </c>
@@ -7748,7 +7722,7 @@
         <v>0.11624593886462879</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43571</v>
       </c>
@@ -7825,7 +7799,7 @@
         <v>0.12834833976833979</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43571</v>
       </c>
@@ -7902,7 +7876,7 @@
         <v>0.13307666666666665</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43571</v>
       </c>
@@ -7976,7 +7950,7 @@
         <v>0.18145821138211382</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43571</v>
       </c>
@@ -8050,7 +8024,7 @@
         <v>0.34329004264392315</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43571</v>
       </c>
@@ -8124,7 +8098,7 @@
         <v>0.54445186813186808</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43571</v>
       </c>
@@ -8198,7 +8172,7 @@
         <v>0.30591914285714278</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43571</v>
       </c>
@@ -8272,7 +8246,7 @@
         <v>0.19192860058309039</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43571</v>
       </c>
@@ -8344,6 +8318,369 @@
       <c r="AD137" s="6">
         <f t="shared" si="9"/>
         <v>0.2686048796147672</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" t="s">
+        <v>83</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K138" s="10">
+        <f>10.0224-6.1343</f>
+        <v>3.8880999999999997</v>
+      </c>
+      <c r="L138" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" t="s">
+        <v>82</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K139" s="10">
+        <f>9.2132-6.0331</f>
+        <v>3.1801000000000004</v>
+      </c>
+      <c r="L139" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B140" s="2">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140" t="s">
+        <v>84</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K140" s="10">
+        <f>9.7443-6.0381</f>
+        <v>3.7062000000000008</v>
+      </c>
+      <c r="L140" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B141" s="2">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" t="s">
+        <v>83</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K141" s="10">
+        <f>10.2184-6.1569</f>
+        <v>4.0615000000000006</v>
+      </c>
+      <c r="L141" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B142" s="2">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" t="s">
+        <v>82</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K142" s="10">
+        <f>9.4637-6.0543</f>
+        <v>3.4093999999999998</v>
+      </c>
+      <c r="L142" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B143" s="2">
+        <v>6</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" t="s">
+        <v>84</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K143" s="10">
+        <f>9.9504-6.0779</f>
+        <v>3.8725000000000005</v>
+      </c>
+      <c r="L143" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144" t="s">
+        <v>83</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>49</v>
+      </c>
+      <c r="G144" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="I144"/>
+      <c r="K144" s="10">
+        <f>10.2134-6.014</f>
+        <v>4.1993999999999998</v>
+      </c>
+      <c r="L144" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" t="s">
+        <v>84</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>49</v>
+      </c>
+      <c r="G145" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="I145"/>
+      <c r="K145" s="10">
+        <f>10.2447-6.1587</f>
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="L145" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" t="s">
+        <v>82</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>49</v>
+      </c>
+      <c r="G146" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="I146"/>
+      <c r="K146" s="10">
+        <f>8.9526-6.0303</f>
+        <v>2.9222999999999999</v>
+      </c>
+      <c r="L146" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B147" s="2">
+        <v>4</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D147" t="s">
+        <v>83</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>49</v>
+      </c>
+      <c r="G147" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="K147" s="10">
+        <f>10.2938-6.0305</f>
+        <v>4.2632999999999992</v>
+      </c>
+      <c r="L147" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B148" s="2">
+        <v>5</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" t="s">
+        <v>84</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>49</v>
+      </c>
+      <c r="G148" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="K148" s="10">
+        <f>10.161-6.1216</f>
+        <v>4.0393999999999997</v>
+      </c>
+      <c r="L148" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>43587</v>
+      </c>
+      <c r="B149" s="2">
+        <v>6</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149" t="s">
+        <v>82</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>49</v>
+      </c>
+      <c r="G149" s="6">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="K149" s="10">
+        <f>9.5773-6.0861</f>
+        <v>3.4911999999999992</v>
+      </c>
+      <c r="L149" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8353,7 +8690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -8361,12 +8698,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -8413,7 +8750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43249</v>
       </c>
@@ -8456,7 +8793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43249</v>
       </c>
@@ -8483,7 +8820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43249</v>
       </c>
@@ -8511,7 +8848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43249</v>
       </c>
@@ -8539,7 +8876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43249</v>
       </c>
